--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0366217391921</v>
+        <v>21.03662173919199</v>
       </c>
       <c r="C2">
-        <v>14.13505079997787</v>
+        <v>14.13505079997786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.964922509035503</v>
+        <v>9.964922509035464</v>
       </c>
       <c r="F2">
-        <v>63.68435372970179</v>
+        <v>63.68435372970137</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.30267522379187</v>
+        <v>36.30267522379151</v>
       </c>
       <c r="J2">
-        <v>18.43088118005448</v>
+        <v>18.43088118005442</v>
       </c>
       <c r="K2">
-        <v>9.425519642659181</v>
+        <v>9.425519642659262</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40963987566083</v>
+        <v>19.40963987566088</v>
       </c>
       <c r="C3">
-        <v>13.05454431321414</v>
+        <v>13.0545443132139</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.280750970235809</v>
+        <v>9.28075097023576</v>
       </c>
       <c r="F3">
-        <v>59.07472197723182</v>
+        <v>59.07472197723143</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.88530520609721</v>
+        <v>33.88530520609688</v>
       </c>
       <c r="J3">
-        <v>17.02270420795863</v>
+        <v>17.02270420795852</v>
       </c>
       <c r="K3">
-        <v>8.801869065868297</v>
+        <v>8.801869065868114</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.374694631461</v>
+        <v>18.37469463146116</v>
       </c>
       <c r="C4">
-        <v>12.3665974359774</v>
+        <v>12.36659743597733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.861489704405722</v>
+        <v>8.861489704405852</v>
       </c>
       <c r="F4">
-        <v>56.17285697095888</v>
+        <v>56.17285697095929</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.37038845201037</v>
+        <v>32.37038845201072</v>
       </c>
       <c r="J4">
-        <v>16.12556568495937</v>
+        <v>16.12556568495951</v>
       </c>
       <c r="K4">
-        <v>8.421529998840503</v>
+        <v>8.421529998840544</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94339809167243</v>
+        <v>17.94339809167251</v>
       </c>
       <c r="C5">
-        <v>12.07971133276978</v>
+        <v>12.07971133276967</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.690309466584051</v>
+        <v>8.690309466583686</v>
       </c>
       <c r="F5">
-        <v>54.96877640104102</v>
+        <v>54.96877640104047</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.74457524187286</v>
+        <v>31.74457524187239</v>
       </c>
       <c r="J5">
-        <v>15.751319281879</v>
+        <v>15.75131928187898</v>
       </c>
       <c r="K5">
-        <v>8.266630794887011</v>
+        <v>8.266630794886751</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87119190031155</v>
+        <v>17.87119190031144</v>
       </c>
       <c r="C6">
-        <v>12.0316688412286</v>
+        <v>12.03166884122862</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.661851399797381</v>
+        <v>8.661851399797399</v>
       </c>
       <c r="F6">
-        <v>54.76750546178536</v>
+        <v>54.76750546178525</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.64012950866211</v>
+        <v>31.64012950866196</v>
       </c>
       <c r="J6">
-        <v>15.68864036491834</v>
+        <v>15.68864036491825</v>
       </c>
       <c r="K6">
-        <v>8.240900791577939</v>
+        <v>8.240900791578081</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>18.36891727657536</v>
       </c>
       <c r="C7">
-        <v>12.36275534344685</v>
+        <v>12.36275534344681</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.859183075822513</v>
+        <v>8.859183075822326</v>
       </c>
       <c r="F7">
-        <v>56.15670709795461</v>
+        <v>56.15670709795469</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.36198367354697</v>
+        <v>32.36198367354707</v>
       </c>
       <c r="J7">
-        <v>16.12055409996118</v>
+        <v>16.12055409996117</v>
       </c>
       <c r="K7">
-        <v>8.419441275152465</v>
+        <v>8.419441275152407</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.48277311822045</v>
+        <v>20.48277311822039</v>
       </c>
       <c r="C8">
-        <v>13.76733493741765</v>
+        <v>13.76733493741757</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.728496466089988</v>
+        <v>9.728496466090011</v>
       </c>
       <c r="F8">
-        <v>62.10134085717818</v>
+        <v>62.10134085717809</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.47499091546091</v>
+        <v>35.47499091546084</v>
       </c>
       <c r="J8">
-        <v>17.9517794060037</v>
+        <v>17.95177940600363</v>
       </c>
       <c r="K8">
-        <v>9.209582803236856</v>
+        <v>9.209582803236893</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.37085881371397</v>
+        <v>24.37085881371403</v>
       </c>
       <c r="C9">
-        <v>16.34763168584693</v>
+        <v>16.34763168584706</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.47011333811375</v>
+        <v>11.47011333811385</v>
       </c>
       <c r="F9">
-        <v>73.48934385459668</v>
+        <v>73.48934385459704</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.38513203234988</v>
+        <v>41.38513203235017</v>
       </c>
       <c r="J9">
-        <v>21.31075544384497</v>
+        <v>21.310755443845</v>
       </c>
       <c r="K9">
-        <v>10.81073464468893</v>
+        <v>10.81073464468902</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.12140317452746</v>
+        <v>27.12140317452765</v>
       </c>
       <c r="C10">
-        <v>18.17289414096845</v>
+        <v>18.17289414096853</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.82817736573136</v>
+        <v>12.82817736573139</v>
       </c>
       <c r="F10">
-        <v>81.66618120618752</v>
+        <v>81.6661812061879</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.70436662191717</v>
+        <v>45.70436662191744</v>
       </c>
       <c r="J10">
-        <v>23.68248819474167</v>
+        <v>23.6824881947418</v>
       </c>
       <c r="K10">
-        <v>12.0753335914231</v>
+        <v>12.07533359142313</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.36563554133832</v>
+        <v>28.36563554133838</v>
       </c>
       <c r="C11">
-        <v>18.99891195060447</v>
+        <v>18.99891195060436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.48138724284058</v>
+        <v>13.48138724284061</v>
       </c>
       <c r="F11">
-        <v>85.39463180180697</v>
+        <v>85.39463180180695</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.69675002465921</v>
+        <v>47.69675002465929</v>
       </c>
       <c r="J11">
-        <v>24.75456816393481</v>
+        <v>24.75456816393483</v>
       </c>
       <c r="K11">
-        <v>12.68814137944039</v>
+        <v>12.6881413794404</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83764593336612</v>
+        <v>28.83764593336617</v>
       </c>
       <c r="C12">
-        <v>19.31234796495573</v>
+        <v>19.3123479649558</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.73605133874828</v>
+        <v>13.73605133874837</v>
       </c>
       <c r="F12">
-        <v>86.81435530363812</v>
+        <v>86.81435530363835</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.45911786620844</v>
+        <v>48.45911786620862</v>
       </c>
       <c r="J12">
-        <v>25.16116950601707</v>
+        <v>25.16116950601715</v>
       </c>
       <c r="K12">
-        <v>12.92779438995632</v>
+        <v>12.92779438995646</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.73591639612057</v>
+        <v>28.73591639612049</v>
       </c>
       <c r="C13">
-        <v>19.2447910393872</v>
+        <v>19.24479103938714</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.68083602545292</v>
+        <v>13.68083602545272</v>
       </c>
       <c r="F13">
-        <v>86.50811464222789</v>
+        <v>86.50811464222714</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.29449932403169</v>
+        <v>48.29449932403102</v>
       </c>
       <c r="J13">
-        <v>25.07354151864099</v>
+        <v>25.07354151864096</v>
       </c>
       <c r="K13">
-        <v>12.87579962484703</v>
+        <v>12.87579962484693</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.4044384102773</v>
+        <v>28.40443841027719</v>
       </c>
       <c r="C14">
-        <v>19.02467704732686</v>
+        <v>19.02467704732661</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.502176664117</v>
+        <v>13.50217666411667</v>
       </c>
       <c r="F14">
-        <v>85.51123051904362</v>
+        <v>85.51123051904253</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.75928473741583</v>
+        <v>47.75928473741491</v>
       </c>
       <c r="J14">
-        <v>24.78799587568596</v>
+        <v>24.78799587568584</v>
       </c>
       <c r="K14">
-        <v>12.70769021170096</v>
+        <v>12.70769021170082</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20157384504609</v>
+        <v>28.20157384504579</v>
       </c>
       <c r="C15">
-        <v>18.88997837642313</v>
+        <v>18.88997837642293</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.39377324043563</v>
+        <v>13.39377324043539</v>
       </c>
       <c r="F15">
-        <v>84.90186402442433</v>
+        <v>84.90186402442336</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.43261875782759</v>
+        <v>47.43261875782675</v>
       </c>
       <c r="J15">
-        <v>24.61322904457466</v>
+        <v>24.61322904457446</v>
       </c>
       <c r="K15">
-        <v>12.60578568671454</v>
+        <v>12.60578568671442</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.04009455267477</v>
+        <v>27.04009455267494</v>
       </c>
       <c r="C16">
-        <v>18.11892464703834</v>
+        <v>18.11892464703837</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.78637397156557</v>
+        <v>12.78637397156588</v>
       </c>
       <c r="F16">
-        <v>81.42320969782536</v>
+        <v>81.42320969782631</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.57502073510801</v>
+        <v>45.57502073510889</v>
       </c>
       <c r="J16">
-        <v>23.61241462515636</v>
+        <v>23.61241462515647</v>
       </c>
       <c r="K16">
-        <v>12.03621218295703</v>
+        <v>12.03621218295719</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.32692215223794</v>
+        <v>26.32692215223787</v>
       </c>
       <c r="C17">
-        <v>17.6455911799029</v>
+        <v>17.64559117990292</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.42418181214104</v>
+        <v>12.42418181214123</v>
       </c>
       <c r="F17">
-        <v>79.29546769197131</v>
+        <v>79.29546769197188</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.4449071100492</v>
+        <v>44.44490711004975</v>
       </c>
       <c r="J17">
-        <v>22.99770010703969</v>
+        <v>22.99770010703974</v>
       </c>
       <c r="K17">
-        <v>11.6977607298999</v>
+        <v>11.69776072989993</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.91592730158607</v>
+        <v>25.91592730158623</v>
       </c>
       <c r="C18">
-        <v>17.37284412222266</v>
+        <v>17.37284412222278</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.2190251832788</v>
+        <v>12.21902518327902</v>
       </c>
       <c r="F18">
-        <v>78.07197852674706</v>
+        <v>78.07197852674764</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.79719019313609</v>
+        <v>43.79719019313648</v>
       </c>
       <c r="J18">
-        <v>22.64337023187879</v>
+        <v>22.64337023187892</v>
       </c>
       <c r="K18">
-        <v>11.50646001688284</v>
+        <v>11.506460016883</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77658688802805</v>
+        <v>25.77658688802802</v>
       </c>
       <c r="C19">
-        <v>17.28037851002266</v>
+        <v>17.28037851002251</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.15005056023407</v>
+        <v>12.15005056023411</v>
       </c>
       <c r="F19">
-        <v>77.657615331918</v>
+        <v>77.65761533191797</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.57817898275207</v>
+        <v>43.57817898275221</v>
       </c>
       <c r="J19">
-        <v>22.52322768417762</v>
+        <v>22.52322768417766</v>
       </c>
       <c r="K19">
-        <v>11.44221148123829</v>
+        <v>11.44221148123839</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.40291139110056</v>
+        <v>26.40291139110051</v>
       </c>
       <c r="C20">
-        <v>17.69602194072103</v>
+        <v>17.69602194072124</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.46239632467517</v>
+        <v>12.46239632467513</v>
       </c>
       <c r="F20">
-        <v>79.52189407987083</v>
+        <v>79.52189407987085</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.5649477807231</v>
+        <v>44.56494778072318</v>
       </c>
       <c r="J20">
-        <v>23.06320625930216</v>
+        <v>23.06320625930219</v>
       </c>
       <c r="K20">
-        <v>11.73342727159396</v>
+        <v>11.73342727159391</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.50176081631242</v>
+        <v>28.50176081631244</v>
       </c>
       <c r="C21">
-        <v>19.08930045892457</v>
+        <v>19.08930045892445</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.55443335839215</v>
+        <v>13.55443335839175</v>
       </c>
       <c r="F21">
-        <v>85.80376321321482</v>
+        <v>85.80376321321395</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.91623765766669</v>
+        <v>47.91623765766592</v>
       </c>
       <c r="J21">
-        <v>24.87183514322387</v>
+        <v>24.87183514322391</v>
       </c>
       <c r="K21">
-        <v>12.7568405290733</v>
+        <v>12.75684052907316</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.87975923724914</v>
+        <v>29.87975923724921</v>
       </c>
       <c r="C22">
-        <v>20.00453069406749</v>
+        <v>20.00453069406731</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.31240929754489</v>
+        <v>14.31240929754453</v>
       </c>
       <c r="F22">
-        <v>89.95990236668878</v>
+        <v>89.959902366688</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.15548184505813</v>
+        <v>50.15548184505739</v>
       </c>
       <c r="J22">
-        <v>26.05870013793793</v>
+        <v>26.05870013793789</v>
       </c>
       <c r="K22">
-        <v>13.47162370070808</v>
+        <v>13.47162370070791</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1429393097559</v>
+        <v>29.14293930975578</v>
       </c>
       <c r="C23">
-        <v>19.51510177935977</v>
+        <v>19.51510177935975</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.90285655847635</v>
+        <v>13.9028565584761</v>
       </c>
       <c r="F23">
-        <v>87.73425468260925</v>
+        <v>87.73425468260838</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.95417637642515</v>
+        <v>48.9541763764244</v>
       </c>
       <c r="J23">
-        <v>25.42412997665657</v>
+        <v>25.42412997665648</v>
       </c>
       <c r="K23">
-        <v>13.0849830454922</v>
+        <v>13.08498304549212</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.36855984792342</v>
+        <v>26.36855984792352</v>
       </c>
       <c r="C24">
-        <v>17.67322421848403</v>
+        <v>17.67322421848419</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.44511012913753</v>
+        <v>12.44511012913782</v>
       </c>
       <c r="F24">
-        <v>79.41952786537941</v>
+        <v>79.41952786538019</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.51067143929666</v>
+        <v>44.5106714392973</v>
       </c>
       <c r="J24">
-        <v>23.03359391486561</v>
+        <v>23.03359391486567</v>
       </c>
       <c r="K24">
-        <v>11.71729236780087</v>
+        <v>11.71729236780099</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.34203894286041</v>
+        <v>23.34203894286046</v>
       </c>
       <c r="C25">
-        <v>15.66501344716908</v>
+        <v>15.66501344716916</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.99010186641053</v>
+        <v>10.99010186641066</v>
       </c>
       <c r="F25">
-        <v>70.45198737914824</v>
+        <v>70.45198737914873</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.7989272705298</v>
+        <v>39.79892727053023</v>
       </c>
       <c r="J25">
-        <v>20.42281775554865</v>
+        <v>20.42281775554868</v>
       </c>
       <c r="K25">
-        <v>10.36704376079705</v>
+        <v>10.36704376079699</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.03662173919199</v>
+        <v>21.0366217391921</v>
       </c>
       <c r="C2">
-        <v>14.13505079997786</v>
+        <v>14.13505079997787</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.964922509035464</v>
+        <v>9.964922509035503</v>
       </c>
       <c r="F2">
-        <v>63.68435372970137</v>
+        <v>63.68435372970179</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.30267522379151</v>
+        <v>36.30267522379187</v>
       </c>
       <c r="J2">
-        <v>18.43088118005442</v>
+        <v>18.43088118005448</v>
       </c>
       <c r="K2">
-        <v>9.425519642659262</v>
+        <v>9.425519642659181</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40963987566088</v>
+        <v>19.40963987566083</v>
       </c>
       <c r="C3">
-        <v>13.0545443132139</v>
+        <v>13.05454431321414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.28075097023576</v>
+        <v>9.280750970235809</v>
       </c>
       <c r="F3">
-        <v>59.07472197723143</v>
+        <v>59.07472197723182</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.88530520609688</v>
+        <v>33.88530520609721</v>
       </c>
       <c r="J3">
-        <v>17.02270420795852</v>
+        <v>17.02270420795863</v>
       </c>
       <c r="K3">
-        <v>8.801869065868114</v>
+        <v>8.801869065868297</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.37469463146116</v>
+        <v>18.374694631461</v>
       </c>
       <c r="C4">
-        <v>12.36659743597733</v>
+        <v>12.3665974359774</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.861489704405852</v>
+        <v>8.861489704405722</v>
       </c>
       <c r="F4">
-        <v>56.17285697095929</v>
+        <v>56.17285697095888</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.37038845201072</v>
+        <v>32.37038845201037</v>
       </c>
       <c r="J4">
-        <v>16.12556568495951</v>
+        <v>16.12556568495937</v>
       </c>
       <c r="K4">
-        <v>8.421529998840544</v>
+        <v>8.421529998840503</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94339809167251</v>
+        <v>17.94339809167243</v>
       </c>
       <c r="C5">
-        <v>12.07971133276967</v>
+        <v>12.07971133276978</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.690309466583686</v>
+        <v>8.690309466584051</v>
       </c>
       <c r="F5">
-        <v>54.96877640104047</v>
+        <v>54.96877640104102</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.74457524187239</v>
+        <v>31.74457524187286</v>
       </c>
       <c r="J5">
-        <v>15.75131928187898</v>
+        <v>15.751319281879</v>
       </c>
       <c r="K5">
-        <v>8.266630794886751</v>
+        <v>8.266630794887011</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87119190031144</v>
+        <v>17.87119190031155</v>
       </c>
       <c r="C6">
-        <v>12.03166884122862</v>
+        <v>12.0316688412286</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.661851399797399</v>
+        <v>8.661851399797381</v>
       </c>
       <c r="F6">
-        <v>54.76750546178525</v>
+        <v>54.76750546178536</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.64012950866196</v>
+        <v>31.64012950866211</v>
       </c>
       <c r="J6">
-        <v>15.68864036491825</v>
+        <v>15.68864036491834</v>
       </c>
       <c r="K6">
-        <v>8.240900791578081</v>
+        <v>8.240900791577939</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>18.36891727657536</v>
       </c>
       <c r="C7">
-        <v>12.36275534344681</v>
+        <v>12.36275534344685</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.859183075822326</v>
+        <v>8.859183075822513</v>
       </c>
       <c r="F7">
-        <v>56.15670709795469</v>
+        <v>56.15670709795461</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.36198367354707</v>
+        <v>32.36198367354697</v>
       </c>
       <c r="J7">
-        <v>16.12055409996117</v>
+        <v>16.12055409996118</v>
       </c>
       <c r="K7">
-        <v>8.419441275152407</v>
+        <v>8.419441275152465</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.48277311822039</v>
+        <v>20.48277311822045</v>
       </c>
       <c r="C8">
-        <v>13.76733493741757</v>
+        <v>13.76733493741765</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.728496466090011</v>
+        <v>9.728496466089988</v>
       </c>
       <c r="F8">
-        <v>62.10134085717809</v>
+        <v>62.10134085717818</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.47499091546084</v>
+        <v>35.47499091546091</v>
       </c>
       <c r="J8">
-        <v>17.95177940600363</v>
+        <v>17.9517794060037</v>
       </c>
       <c r="K8">
-        <v>9.209582803236893</v>
+        <v>9.209582803236856</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.37085881371403</v>
+        <v>24.37085881371397</v>
       </c>
       <c r="C9">
-        <v>16.34763168584706</v>
+        <v>16.34763168584693</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.47011333811385</v>
+        <v>11.47011333811375</v>
       </c>
       <c r="F9">
-        <v>73.48934385459704</v>
+        <v>73.48934385459668</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.38513203235017</v>
+        <v>41.38513203234988</v>
       </c>
       <c r="J9">
-        <v>21.310755443845</v>
+        <v>21.31075544384497</v>
       </c>
       <c r="K9">
-        <v>10.81073464468902</v>
+        <v>10.81073464468893</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.12140317452765</v>
+        <v>27.12140317452746</v>
       </c>
       <c r="C10">
-        <v>18.17289414096853</v>
+        <v>18.17289414096845</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.82817736573139</v>
+        <v>12.82817736573136</v>
       </c>
       <c r="F10">
-        <v>81.6661812061879</v>
+        <v>81.66618120618752</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.70436662191744</v>
+        <v>45.70436662191717</v>
       </c>
       <c r="J10">
-        <v>23.6824881947418</v>
+        <v>23.68248819474167</v>
       </c>
       <c r="K10">
-        <v>12.07533359142313</v>
+        <v>12.0753335914231</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.36563554133838</v>
+        <v>28.36563554133832</v>
       </c>
       <c r="C11">
-        <v>18.99891195060436</v>
+        <v>18.99891195060447</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.48138724284061</v>
+        <v>13.48138724284058</v>
       </c>
       <c r="F11">
-        <v>85.39463180180695</v>
+        <v>85.39463180180697</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.69675002465929</v>
+        <v>47.69675002465921</v>
       </c>
       <c r="J11">
-        <v>24.75456816393483</v>
+        <v>24.75456816393481</v>
       </c>
       <c r="K11">
-        <v>12.6881413794404</v>
+        <v>12.68814137944039</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83764593336617</v>
+        <v>28.83764593336612</v>
       </c>
       <c r="C12">
-        <v>19.3123479649558</v>
+        <v>19.31234796495573</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.73605133874837</v>
+        <v>13.73605133874828</v>
       </c>
       <c r="F12">
-        <v>86.81435530363835</v>
+        <v>86.81435530363812</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.45911786620862</v>
+        <v>48.45911786620844</v>
       </c>
       <c r="J12">
-        <v>25.16116950601715</v>
+        <v>25.16116950601707</v>
       </c>
       <c r="K12">
-        <v>12.92779438995646</v>
+        <v>12.92779438995632</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.73591639612049</v>
+        <v>28.73591639612057</v>
       </c>
       <c r="C13">
-        <v>19.24479103938714</v>
+        <v>19.2447910393872</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.68083602545272</v>
+        <v>13.68083602545292</v>
       </c>
       <c r="F13">
-        <v>86.50811464222714</v>
+        <v>86.50811464222789</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.29449932403102</v>
+        <v>48.29449932403169</v>
       </c>
       <c r="J13">
-        <v>25.07354151864096</v>
+        <v>25.07354151864099</v>
       </c>
       <c r="K13">
-        <v>12.87579962484693</v>
+        <v>12.87579962484703</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.40443841027719</v>
+        <v>28.4044384102773</v>
       </c>
       <c r="C14">
-        <v>19.02467704732661</v>
+        <v>19.02467704732686</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.50217666411667</v>
+        <v>13.502176664117</v>
       </c>
       <c r="F14">
-        <v>85.51123051904253</v>
+        <v>85.51123051904362</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.75928473741491</v>
+        <v>47.75928473741583</v>
       </c>
       <c r="J14">
-        <v>24.78799587568584</v>
+        <v>24.78799587568596</v>
       </c>
       <c r="K14">
-        <v>12.70769021170082</v>
+        <v>12.70769021170096</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20157384504579</v>
+        <v>28.20157384504609</v>
       </c>
       <c r="C15">
-        <v>18.88997837642293</v>
+        <v>18.88997837642313</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.39377324043539</v>
+        <v>13.39377324043563</v>
       </c>
       <c r="F15">
-        <v>84.90186402442336</v>
+        <v>84.90186402442433</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.43261875782675</v>
+        <v>47.43261875782759</v>
       </c>
       <c r="J15">
-        <v>24.61322904457446</v>
+        <v>24.61322904457466</v>
       </c>
       <c r="K15">
-        <v>12.60578568671442</v>
+        <v>12.60578568671454</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.04009455267494</v>
+        <v>27.04009455267477</v>
       </c>
       <c r="C16">
-        <v>18.11892464703837</v>
+        <v>18.11892464703834</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.78637397156588</v>
+        <v>12.78637397156557</v>
       </c>
       <c r="F16">
-        <v>81.42320969782631</v>
+        <v>81.42320969782536</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.57502073510889</v>
+        <v>45.57502073510801</v>
       </c>
       <c r="J16">
-        <v>23.61241462515647</v>
+        <v>23.61241462515636</v>
       </c>
       <c r="K16">
-        <v>12.03621218295719</v>
+        <v>12.03621218295703</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.32692215223787</v>
+        <v>26.32692215223794</v>
       </c>
       <c r="C17">
-        <v>17.64559117990292</v>
+        <v>17.6455911799029</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.42418181214123</v>
+        <v>12.42418181214104</v>
       </c>
       <c r="F17">
-        <v>79.29546769197188</v>
+        <v>79.29546769197131</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.44490711004975</v>
+        <v>44.4449071100492</v>
       </c>
       <c r="J17">
-        <v>22.99770010703974</v>
+        <v>22.99770010703969</v>
       </c>
       <c r="K17">
-        <v>11.69776072989993</v>
+        <v>11.6977607298999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.91592730158623</v>
+        <v>25.91592730158607</v>
       </c>
       <c r="C18">
-        <v>17.37284412222278</v>
+        <v>17.37284412222266</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.21902518327902</v>
+        <v>12.2190251832788</v>
       </c>
       <c r="F18">
-        <v>78.07197852674764</v>
+        <v>78.07197852674706</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.79719019313648</v>
+        <v>43.79719019313609</v>
       </c>
       <c r="J18">
-        <v>22.64337023187892</v>
+        <v>22.64337023187879</v>
       </c>
       <c r="K18">
-        <v>11.506460016883</v>
+        <v>11.50646001688284</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77658688802802</v>
+        <v>25.77658688802805</v>
       </c>
       <c r="C19">
-        <v>17.28037851002251</v>
+        <v>17.28037851002266</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.15005056023411</v>
+        <v>12.15005056023407</v>
       </c>
       <c r="F19">
-        <v>77.65761533191797</v>
+        <v>77.657615331918</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.57817898275221</v>
+        <v>43.57817898275207</v>
       </c>
       <c r="J19">
-        <v>22.52322768417766</v>
+        <v>22.52322768417762</v>
       </c>
       <c r="K19">
-        <v>11.44221148123839</v>
+        <v>11.44221148123829</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.40291139110051</v>
+        <v>26.40291139110056</v>
       </c>
       <c r="C20">
-        <v>17.69602194072124</v>
+        <v>17.69602194072103</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.46239632467513</v>
+        <v>12.46239632467517</v>
       </c>
       <c r="F20">
-        <v>79.52189407987085</v>
+        <v>79.52189407987083</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.56494778072318</v>
+        <v>44.5649477807231</v>
       </c>
       <c r="J20">
-        <v>23.06320625930219</v>
+        <v>23.06320625930216</v>
       </c>
       <c r="K20">
-        <v>11.73342727159391</v>
+        <v>11.73342727159396</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.50176081631244</v>
+        <v>28.50176081631242</v>
       </c>
       <c r="C21">
-        <v>19.08930045892445</v>
+        <v>19.08930045892457</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.55443335839175</v>
+        <v>13.55443335839215</v>
       </c>
       <c r="F21">
-        <v>85.80376321321395</v>
+        <v>85.80376321321482</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.91623765766592</v>
+        <v>47.91623765766669</v>
       </c>
       <c r="J21">
-        <v>24.87183514322391</v>
+        <v>24.87183514322387</v>
       </c>
       <c r="K21">
-        <v>12.75684052907316</v>
+        <v>12.7568405290733</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.87975923724921</v>
+        <v>29.87975923724914</v>
       </c>
       <c r="C22">
-        <v>20.00453069406731</v>
+        <v>20.00453069406749</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.31240929754453</v>
+        <v>14.31240929754489</v>
       </c>
       <c r="F22">
-        <v>89.959902366688</v>
+        <v>89.95990236668878</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.15548184505739</v>
+        <v>50.15548184505813</v>
       </c>
       <c r="J22">
-        <v>26.05870013793789</v>
+        <v>26.05870013793793</v>
       </c>
       <c r="K22">
-        <v>13.47162370070791</v>
+        <v>13.47162370070808</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.14293930975578</v>
+        <v>29.1429393097559</v>
       </c>
       <c r="C23">
-        <v>19.51510177935975</v>
+        <v>19.51510177935977</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.9028565584761</v>
+        <v>13.90285655847635</v>
       </c>
       <c r="F23">
-        <v>87.73425468260838</v>
+        <v>87.73425468260925</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.9541763764244</v>
+        <v>48.95417637642515</v>
       </c>
       <c r="J23">
-        <v>25.42412997665648</v>
+        <v>25.42412997665657</v>
       </c>
       <c r="K23">
-        <v>13.08498304549212</v>
+        <v>13.0849830454922</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.36855984792352</v>
+        <v>26.36855984792342</v>
       </c>
       <c r="C24">
-        <v>17.67322421848419</v>
+        <v>17.67322421848403</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.44511012913782</v>
+        <v>12.44511012913753</v>
       </c>
       <c r="F24">
-        <v>79.41952786538019</v>
+        <v>79.41952786537941</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.5106714392973</v>
+        <v>44.51067143929666</v>
       </c>
       <c r="J24">
-        <v>23.03359391486567</v>
+        <v>23.03359391486561</v>
       </c>
       <c r="K24">
-        <v>11.71729236780099</v>
+        <v>11.71729236780087</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.34203894286046</v>
+        <v>23.34203894286041</v>
       </c>
       <c r="C25">
-        <v>15.66501344716916</v>
+        <v>15.66501344716908</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.99010186641066</v>
+        <v>10.99010186641053</v>
       </c>
       <c r="F25">
-        <v>70.45198737914873</v>
+        <v>70.45198737914824</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.79892727053023</v>
+        <v>39.7989272705298</v>
       </c>
       <c r="J25">
-        <v>20.42281775554868</v>
+        <v>20.42281775554865</v>
       </c>
       <c r="K25">
-        <v>10.36704376079699</v>
+        <v>10.36704376079705</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0366217391921</v>
+        <v>20.88158026957171</v>
       </c>
       <c r="C2">
-        <v>14.13505079997787</v>
+        <v>13.96103443353268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.964922509035503</v>
+        <v>10.14992045508744</v>
       </c>
       <c r="F2">
-        <v>63.68435372970179</v>
+        <v>63.63265003106301</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.063927856917941</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.30267522379187</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.43088118005448</v>
+        <v>36.35977034528708</v>
       </c>
       <c r="K2">
-        <v>9.425519642659181</v>
+        <v>18.25492322339004</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.466626255092351</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40963987566083</v>
+        <v>19.26828053272678</v>
       </c>
       <c r="C3">
-        <v>13.05454431321414</v>
+        <v>12.88830853380183</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.280750970235809</v>
+        <v>9.471423263240199</v>
       </c>
       <c r="F3">
-        <v>59.07472197723182</v>
+        <v>59.05752144244688</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.080394459928306</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.88530520609721</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.02270420795863</v>
+        <v>33.96008091038998</v>
       </c>
       <c r="K3">
-        <v>8.801869065868297</v>
+        <v>16.85558239230411</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.845972158188511</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.374694631461</v>
+        <v>18.24239196103396</v>
       </c>
       <c r="C4">
-        <v>12.3665974359774</v>
+        <v>12.20529305065716</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.861489704405722</v>
+        <v>9.055667492530976</v>
       </c>
       <c r="F4">
-        <v>56.17285697095888</v>
+        <v>56.16858010598882</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.090556720950011</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.37038845201037</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.12556568495937</v>
+        <v>32.45657644082822</v>
       </c>
       <c r="K4">
-        <v>8.421529998840503</v>
+        <v>15.9640599535753</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.467323056320772</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94339809167243</v>
+        <v>17.81497600427259</v>
       </c>
       <c r="C5">
-        <v>12.07971133276978</v>
+        <v>11.92046466127242</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.690309466584051</v>
+        <v>8.885930763747945</v>
       </c>
       <c r="F5">
-        <v>54.96877640104102</v>
+        <v>54.96992874686634</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.094720744393847</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.74457524187286</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15.751319281879</v>
+        <v>31.83557936658829</v>
       </c>
       <c r="K5">
-        <v>8.266630794887011</v>
+        <v>15.5921621848836</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.313083757978303</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87119190031155</v>
+        <v>17.74342642130567</v>
       </c>
       <c r="C6">
-        <v>12.0316688412286</v>
+        <v>11.87276702199735</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.661851399797381</v>
+        <v>8.857713539309657</v>
       </c>
       <c r="F6">
-        <v>54.76750546178536</v>
+        <v>54.76957024867733</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.095413816656142</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.64012950866211</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15.68864036491834</v>
+        <v>31.73194404150351</v>
       </c>
       <c r="K6">
-        <v>8.240900791577939</v>
+        <v>15.52987722641332</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.287461819335977</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.36891727657536</v>
+        <v>18.23666613764477</v>
       </c>
       <c r="C7">
-        <v>12.36275534344685</v>
+        <v>12.20147850233558</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.859183075822513</v>
+        <v>9.053380259673553</v>
       </c>
       <c r="F7">
-        <v>56.15670709795461</v>
+        <v>56.15250274452745</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.090612774055192</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.36198367354697</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.12055409996118</v>
+        <v>32.44823591245856</v>
       </c>
       <c r="K7">
-        <v>8.419441275152465</v>
+        <v>15.95907978444003</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.465243338421061</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.48277311822045</v>
+        <v>20.33232773804891</v>
       </c>
       <c r="C8">
-        <v>13.76733493741765</v>
+        <v>13.59597523510631</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.728496466089988</v>
+        <v>9.915452950016888</v>
       </c>
       <c r="F8">
-        <v>62.10134085717818</v>
+        <v>62.07079605600001</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.069601190441004</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.47499091546091</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>17.9517794060037</v>
+        <v>35.53808329997278</v>
       </c>
       <c r="K8">
-        <v>9.209582803236856</v>
+        <v>17.77883611206367</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.251759740343795</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.37085881371397</v>
+        <v>24.18885183226092</v>
       </c>
       <c r="C9">
-        <v>16.34763168584693</v>
+        <v>16.15723749581346</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.47011333811375</v>
+        <v>11.64246237423749</v>
       </c>
       <c r="F9">
-        <v>73.48934385459668</v>
+        <v>73.38723423154822</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.028271375604149</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.38513203234988</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.31075544384497</v>
+        <v>41.40584457637655</v>
       </c>
       <c r="K9">
-        <v>10.81073464468893</v>
+        <v>21.11622141626348</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.84406977870088</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.12140317452746</v>
+        <v>26.91707963140524</v>
       </c>
       <c r="C10">
-        <v>18.17289414096845</v>
+        <v>17.96810405341051</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.82817736573136</v>
+        <v>12.98838080526236</v>
       </c>
       <c r="F10">
-        <v>81.66618120618752</v>
+        <v>81.52664543745153</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.996881011621936</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.70436662191717</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>23.68248819474167</v>
+        <v>45.69328958212302</v>
       </c>
       <c r="K10">
-        <v>12.0753335914231</v>
+        <v>23.47156410283268</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>12.10000515139355</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.36563554133832</v>
+        <v>28.15087713438701</v>
       </c>
       <c r="C11">
-        <v>18.99891195060447</v>
+        <v>18.78719645158974</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.48138724284058</v>
+        <v>13.63532454154894</v>
       </c>
       <c r="F11">
-        <v>85.39463180180697</v>
+        <v>85.23610479403573</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.982082765412688</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.69675002465921</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>24.75456816393481</v>
+        <v>47.67021600062999</v>
       </c>
       <c r="K11">
-        <v>12.68814137944039</v>
+        <v>24.53571668537573</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.7079813496193</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83764593336612</v>
+        <v>28.61883887517765</v>
       </c>
       <c r="C12">
-        <v>19.31234796495573</v>
+        <v>19.09791921307896</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.73605133874828</v>
+        <v>13.88745009889595</v>
       </c>
       <c r="F12">
-        <v>86.81435530363812</v>
+        <v>86.64818827441341</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.97637020342076</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.45911786620844</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>25.16116950601707</v>
+        <v>48.42647644526225</v>
       </c>
       <c r="K12">
-        <v>12.92779438995632</v>
+        <v>24.93920277615216</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.94561914114608</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.73591639612057</v>
+        <v>28.51798675272632</v>
       </c>
       <c r="C13">
-        <v>19.2447910393872</v>
+        <v>19.03095142447713</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.68083602545292</v>
+        <v>13.83279012993938</v>
       </c>
       <c r="F13">
-        <v>86.50811464222789</v>
+        <v>86.34361645549427</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.977606007297234</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.29449932403169</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>25.07354151864099</v>
+        <v>48.26318685916694</v>
       </c>
       <c r="K13">
-        <v>12.87579962484703</v>
+        <v>24.85225169320518</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.89406786829372</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.4044384102773</v>
+        <v>28.18934926899526</v>
       </c>
       <c r="C14">
-        <v>19.02467704732686</v>
+        <v>18.81274041135408</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.502176664117</v>
+        <v>13.65590887730593</v>
       </c>
       <c r="F14">
-        <v>85.51123051904362</v>
+        <v>85.35208517357938</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.981615204508072</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.75928473741583</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>24.78799587568596</v>
+        <v>47.73225416207693</v>
       </c>
       <c r="K14">
-        <v>12.70769021170096</v>
+        <v>24.56889070530991</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.72736853817829</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20157384504609</v>
+        <v>27.98820988902036</v>
       </c>
       <c r="C15">
-        <v>18.88997837642313</v>
+        <v>18.67919420521091</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.39377324043563</v>
+        <v>13.54857078612918</v>
       </c>
       <c r="F15">
-        <v>84.90186402442433</v>
+        <v>84.7459328447566</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.984055588264601</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.43261875782759</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>24.61322904457466</v>
+        <v>47.4081737354219</v>
       </c>
       <c r="K15">
-        <v>12.60578568671454</v>
+        <v>24.39544560241301</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.62630138236336</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.04009455267477</v>
+        <v>26.83644288649603</v>
       </c>
       <c r="C16">
-        <v>18.11892464703834</v>
+        <v>17.9145767689571</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.78637397156557</v>
+        <v>12.9469675452764</v>
       </c>
       <c r="F16">
-        <v>81.42320969782536</v>
+        <v>81.28486291346402</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.997834982289689</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.57502073510801</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>23.61241462515636</v>
+        <v>45.56492535505907</v>
       </c>
       <c r="K16">
-        <v>12.03621218295703</v>
+        <v>23.40199563456156</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>12.06117724175236</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.32692215223794</v>
+        <v>26.12912196295455</v>
       </c>
       <c r="C17">
-        <v>17.6455911799029</v>
+        <v>17.44507350604573</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.42418181214104</v>
+        <v>12.58810693880256</v>
       </c>
       <c r="F17">
-        <v>79.29546769197131</v>
+        <v>79.16730767943307</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.006134083627908</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.4449071100492</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>22.99770010703969</v>
+        <v>44.4432942727894</v>
       </c>
       <c r="K17">
-        <v>11.6977607298999</v>
+        <v>22.79165114650813</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.72519390333559</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.91592730158607</v>
+        <v>25.72147035141933</v>
       </c>
       <c r="C18">
-        <v>17.37284412222266</v>
+        <v>17.17449685513918</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.2190251832788</v>
+        <v>12.38480146219524</v>
       </c>
       <c r="F18">
-        <v>78.07197852674706</v>
+        <v>77.94950561563513</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.010861229291117</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.79719019313609</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>22.64337023187879</v>
+        <v>43.80037120273087</v>
       </c>
       <c r="K18">
-        <v>11.50646001688284</v>
+        <v>22.43979393951432</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.53523353596145</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77658688802805</v>
+        <v>25.58325946739856</v>
       </c>
       <c r="C19">
-        <v>17.28037851002266</v>
+        <v>17.08276139490625</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.15005056023407</v>
+        <v>12.31644382888355</v>
       </c>
       <c r="F19">
-        <v>77.657615331918</v>
+        <v>77.53704238992952</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.012454694043896</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.57817898275207</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>22.52322768417762</v>
+        <v>43.5829711690935</v>
       </c>
       <c r="K19">
-        <v>11.44221148123829</v>
+        <v>22.32048268655767</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.47142656411275</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.40291139110056</v>
+        <v>26.20449096325643</v>
       </c>
       <c r="C20">
-        <v>17.69602194072103</v>
+        <v>17.49510013145761</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.46239632467517</v>
+        <v>12.62597388179821</v>
       </c>
       <c r="F20">
-        <v>79.52189407987083</v>
+        <v>79.39266845449833</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.005255635264397</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.5649477807231</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23.06320625930216</v>
+        <v>44.56244142827572</v>
       </c>
       <c r="K20">
-        <v>11.73342727159396</v>
+        <v>22.85669660322207</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.76060624772678</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.50176081631242</v>
+        <v>28.28584054914682</v>
       </c>
       <c r="C21">
-        <v>19.08930045892457</v>
+        <v>18.87680770406302</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.55443335839215</v>
+        <v>13.70764840858829</v>
       </c>
       <c r="F21">
-        <v>85.80376321321482</v>
+        <v>85.64305948314768</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.980440885310831</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.91623765766669</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>24.87183514322387</v>
+        <v>47.88795741896745</v>
       </c>
       <c r="K21">
-        <v>12.7568405290733</v>
+        <v>24.65209182251927</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.77611031560989</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.87975923724914</v>
+        <v>29.651790239712</v>
       </c>
       <c r="C22">
-        <v>20.00453069406749</v>
+        <v>19.78391657929519</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.31240929754489</v>
+        <v>14.45783427666763</v>
       </c>
       <c r="F22">
-        <v>89.95990236668878</v>
+        <v>89.77586963071117</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.963564209947271</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.15548184505813</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>26.05870013793793</v>
+        <v>50.10878144063022</v>
       </c>
       <c r="K22">
-        <v>13.47162370070808</v>
+        <v>25.82960966631223</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.48459198310506</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1429393097559</v>
+        <v>28.92148207351322</v>
       </c>
       <c r="C23">
-        <v>19.51510177935977</v>
+        <v>19.29888997928104</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.90285655847635</v>
+        <v>14.0525603078662</v>
       </c>
       <c r="F23">
-        <v>87.73425468260925</v>
+        <v>87.56300261958918</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.972646280187502</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.95417637642515</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>25.42412997665657</v>
+        <v>48.91750263566488</v>
       </c>
       <c r="K23">
-        <v>13.0849830454922</v>
+        <v>25.20011289963118</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>13.10144542898986</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.36855984792342</v>
+        <v>26.17041989095886</v>
       </c>
       <c r="C24">
-        <v>17.67322421848403</v>
+        <v>17.47248521482875</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.44511012913753</v>
+        <v>12.60884501840038</v>
       </c>
       <c r="F24">
-        <v>79.41952786537941</v>
+        <v>79.29078451990914</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.005652916762548</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.51067143929666</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>23.03359391486561</v>
+        <v>44.50856929560452</v>
       </c>
       <c r="K24">
-        <v>11.71729236780087</v>
+        <v>22.82729265982434</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.74458650746204</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.34203894286041</v>
+        <v>23.168285657155</v>
       </c>
       <c r="C25">
-        <v>15.66501344716908</v>
+        <v>15.47976556790768</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.99010186641053</v>
+        <v>11.16654304245926</v>
       </c>
       <c r="F25">
-        <v>70.45198737914824</v>
+        <v>70.36270709276276</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.039550743140293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.7989272705298</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>20.42281775554865</v>
+        <v>39.83099831337586</v>
       </c>
       <c r="K25">
-        <v>10.36704376079705</v>
+        <v>20.23412363920831</v>
       </c>
       <c r="L25">
+        <v>10.40304789928797</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.88158026957171</v>
+        <v>28.60844734929227</v>
       </c>
       <c r="C2">
-        <v>13.96103443353268</v>
+        <v>17.90296195367394</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.14992045508744</v>
+        <v>6.239792891305132</v>
       </c>
       <c r="F2">
-        <v>63.63265003106301</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.063927856917941</v>
+        <v>2.105512064821075</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.35977034528708</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.25492322339004</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.466626255092351</v>
+        <v>6.17598538585079</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.89581005778273</v>
+      </c>
+      <c r="N2">
+        <v>16.38863285765719</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.26828053272678</v>
+        <v>26.85660970696008</v>
       </c>
       <c r="C3">
-        <v>12.88830853380183</v>
+        <v>16.56533487292781</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.471423263240199</v>
+        <v>6.072095169835764</v>
       </c>
       <c r="F3">
-        <v>59.05752144244688</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.080394459928306</v>
+        <v>2.120579408506994</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.96008091038998</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.85558239230411</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.845972158188511</v>
+        <v>6.109741998795623</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.23188115512628</v>
+      </c>
+      <c r="N3">
+        <v>16.48676623679955</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.24239196103396</v>
+        <v>25.75677933529433</v>
       </c>
       <c r="C4">
-        <v>12.20529305065716</v>
+        <v>15.7089390227855</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.055667492530976</v>
+        <v>5.968862203807037</v>
       </c>
       <c r="F4">
-        <v>56.16858010598882</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.090556720950011</v>
+        <v>2.129967069884619</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.45657644082822</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.9640599535753</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.467323056320772</v>
+        <v>6.072771857512387</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.82663924345443</v>
+      </c>
+      <c r="N4">
+        <v>16.55350651033564</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.81497600427259</v>
+        <v>25.30267776531725</v>
       </c>
       <c r="C5">
-        <v>11.92046466127242</v>
+        <v>15.3508488303069</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.885930763747945</v>
+        <v>5.926680755449068</v>
       </c>
       <c r="F5">
-        <v>54.96992874686634</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.094720744393847</v>
+        <v>2.133832611828077</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>31.83557936658829</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.5921621848836</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.313083757978303</v>
+        <v>6.058605215097546</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.66220348102772</v>
+      </c>
+      <c r="N5">
+        <v>16.5822334322041</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.74342642130567</v>
+        <v>25.22692504078178</v>
       </c>
       <c r="C6">
-        <v>11.87276702199735</v>
+        <v>15.29083094049248</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.857713539309657</v>
+        <v>5.919668519776983</v>
       </c>
       <c r="F6">
-        <v>54.76957024867733</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.095413816656142</v>
+        <v>2.134477053992031</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.73194404150351</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.52987722641332</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.287461819335977</v>
+        <v>6.056306238550397</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.63494501586607</v>
+      </c>
+      <c r="N6">
+        <v>16.58709316688469</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.23666613764477</v>
+        <v>25.75067877700383</v>
       </c>
       <c r="C7">
-        <v>12.20147850233558</v>
+        <v>15.70414689251578</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.053380259673553</v>
+        <v>5.968293843693636</v>
       </c>
       <c r="F7">
-        <v>56.15250274452745</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.090612774055192</v>
+        <v>2.130019032856221</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.44823591245856</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.95907978444003</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.465243338421061</v>
+        <v>6.072577202686376</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.82441860382459</v>
+      </c>
+      <c r="N7">
+        <v>16.55388786318145</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.33232773804891</v>
+        <v>28.00949826760136</v>
       </c>
       <c r="C8">
-        <v>13.59597523510631</v>
+        <v>17.44885220712917</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.915452950016888</v>
+        <v>6.181995325339188</v>
       </c>
       <c r="F8">
-        <v>62.07079605600001</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.069601190441004</v>
+        <v>2.110682654883854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.53808329997278</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.77883611206367</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>9.251759740343795</v>
+        <v>6.152355930567264</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.66643331085922</v>
+      </c>
+      <c r="N8">
+        <v>16.42105835013065</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.18885183226092</v>
+        <v>32.24649628049481</v>
       </c>
       <c r="C9">
-        <v>16.15723749581346</v>
+        <v>20.60631953506234</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.64246237423749</v>
+        <v>6.601566317680893</v>
       </c>
       <c r="F9">
-        <v>73.38723423154822</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.028271375604149</v>
+        <v>2.073549066106403</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>41.40584457637655</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.11622141626348</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10.84406977870088</v>
+        <v>6.339777000246903</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.33468484727624</v>
+      </c>
+      <c r="N9">
+        <v>16.21731001586241</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.91707963140524</v>
+        <v>35.41817719345823</v>
       </c>
       <c r="C10">
-        <v>17.96810405341051</v>
+        <v>22.78896847668039</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.98838080526236</v>
+        <v>6.91477148873295</v>
       </c>
       <c r="F10">
-        <v>81.52664543745153</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>1.996881011621936</v>
+        <v>2.046261586280592</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>45.69328958212302</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.47156410283268</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>12.10000515139355</v>
+        <v>6.498871266396838</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.57184583729133</v>
+      </c>
+      <c r="N10">
+        <v>16.11084271659941</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.15087713438701</v>
+        <v>36.86120452489006</v>
       </c>
       <c r="C11">
-        <v>18.78719645158974</v>
+        <v>23.75866578048832</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.63532454154894</v>
+        <v>7.059725733873886</v>
       </c>
       <c r="F11">
-        <v>85.23610479403573</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.982082765412688</v>
+        <v>2.033712979118549</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>47.67021600062999</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.53571668537573</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>12.7079813496193</v>
+        <v>6.576570635769044</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.27695786975518</v>
+      </c>
+      <c r="N11">
+        <v>16.07418793070159</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.61883887517765</v>
+        <v>37.40407324283475</v>
       </c>
       <c r="C12">
-        <v>19.09791921307896</v>
+        <v>24.12319826726416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.88745009889595</v>
+        <v>7.115123905016343</v>
       </c>
       <c r="F12">
-        <v>86.64818827441341</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.97637020342076</v>
+        <v>2.028927912436507</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>48.42647644526225</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24.93920277615216</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>12.94561914114608</v>
+        <v>6.606828663101805</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.56683163144307</v>
+      </c>
+      <c r="N12">
+        <v>16.0622479588334</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51798675272632</v>
+        <v>37.28730101601484</v>
       </c>
       <c r="C13">
-        <v>19.03095142447713</v>
+        <v>24.04479647296457</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.83279012993938</v>
+        <v>7.103167565680021</v>
       </c>
       <c r="F13">
-        <v>86.34361645549427</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.977606007297234</v>
+        <v>2.029960185346637</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>48.26318685916694</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.85225169320518</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>12.89406786829372</v>
+        <v>6.60027367003152</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.50450767122267</v>
+      </c>
+      <c r="N13">
+        <v>16.06472871738863</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18934926899526</v>
+        <v>36.90593306744411</v>
       </c>
       <c r="C14">
-        <v>18.81274041135408</v>
+        <v>23.78870534455848</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.65590887730593</v>
+        <v>7.06427221644505</v>
       </c>
       <c r="F14">
-        <v>85.35208517357938</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.981615204508072</v>
+        <v>2.033320061948781</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>47.73225416207693</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.56889070530991</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>12.72736853817829</v>
+        <v>6.579042802790005</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.30085429660869</v>
+      </c>
+      <c r="N14">
+        <v>16.07316515518547</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.98820988902036</v>
+        <v>36.67189549593802</v>
       </c>
       <c r="C15">
-        <v>18.67919420521091</v>
+        <v>23.63151623754419</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.54857078612918</v>
+        <v>7.040518832738091</v>
       </c>
       <c r="F15">
-        <v>84.7459328447566</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.984055588264601</v>
+        <v>2.035373309708386</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>47.4081737354219</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>24.39544560241301</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>12.62630138236336</v>
+        <v>6.566149304856676</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.1757926114763</v>
+      </c>
+      <c r="N15">
+        <v>16.07859352077148</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.83644288649603</v>
+        <v>35.3233243642029</v>
       </c>
       <c r="C16">
-        <v>17.9145767689571</v>
+        <v>22.72518369410799</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.9469675452764</v>
+        <v>6.90536033963804</v>
       </c>
       <c r="F16">
-        <v>81.28486291346402</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.997834982289689</v>
+        <v>2.047077829296224</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>45.56492535505907</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.40199563456156</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>12.06117724175236</v>
+        <v>6.493906209682143</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.53489984898676</v>
+      </c>
+      <c r="N16">
+        <v>16.11349527452196</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12912196295455</v>
+        <v>34.48874782678921</v>
       </c>
       <c r="C17">
-        <v>17.44507350604573</v>
+        <v>22.16367141261415</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.58810693880256</v>
+        <v>6.82317602082129</v>
       </c>
       <c r="F17">
-        <v>79.16730767943307</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.006134083627908</v>
+        <v>2.054214529064581</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.4432942727894</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>22.79165114650813</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>11.72519390333559</v>
+        <v>6.450996701149871</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.21158818360988</v>
+      </c>
+      <c r="N17">
+        <v>16.138084846479</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.72147035141933</v>
+        <v>34.00580549168138</v>
       </c>
       <c r="C18">
-        <v>17.17449685513918</v>
+        <v>21.83847430712263</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.38480146219524</v>
+        <v>6.776127926280552</v>
       </c>
       <c r="F18">
-        <v>77.94950561563513</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.010861229291117</v>
+        <v>2.058307582661054</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>43.80037120273087</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.43979393951432</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>11.53523353596145</v>
+        <v>6.426812832207533</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.02599141924208</v>
+      </c>
+      <c r="N18">
+        <v>16.15331953869537</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.58325946739856</v>
+        <v>33.84176756451113</v>
       </c>
       <c r="C19">
-        <v>17.08276139490625</v>
+        <v>21.72796682951523</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.31644382888355</v>
+        <v>6.760232350108033</v>
       </c>
       <c r="F19">
-        <v>77.53704238992952</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>2.012454694043896</v>
+        <v>2.059691772422623</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>43.5829711690935</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.32048268655767</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>11.47142656411275</v>
+        <v>6.418707981828894</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.96320848500773</v>
+      </c>
+      <c r="N19">
+        <v>16.15865838833755</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.20449096325643</v>
+        <v>34.57788657554198</v>
       </c>
       <c r="C20">
-        <v>17.49510013145761</v>
+        <v>22.22367173258506</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.62597388179821</v>
+        <v>6.831900705036563</v>
       </c>
       <c r="F20">
-        <v>79.39266845449833</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.005255635264397</v>
+        <v>2.053456126248532</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>44.56244142827572</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>22.85669660322207</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>11.76060624772678</v>
+        <v>6.45551264371955</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.24596626882891</v>
+      </c>
+      <c r="N20">
+        <v>16.13535264069298</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.28584054914682</v>
+        <v>37.01803980776121</v>
       </c>
       <c r="C21">
-        <v>18.87680770406302</v>
+        <v>23.86399205913682</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.70764840858829</v>
+        <v>7.075681575662911</v>
       </c>
       <c r="F21">
-        <v>85.64305948314768</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.980440885310831</v>
+        <v>2.032334207946001</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>47.88795741896745</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.65209182251927</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>12.77611031560989</v>
+        <v>6.585255542909764</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.36073757714259</v>
+      </c>
+      <c r="N21">
+        <v>16.0706323104533</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.651790239712</v>
+        <v>38.592502011823</v>
       </c>
       <c r="C22">
-        <v>19.78391657929519</v>
+        <v>24.9208769216223</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.45783427666763</v>
+        <v>7.238060556313494</v>
       </c>
       <c r="F22">
-        <v>89.77586963071117</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>1.963564209947271</v>
+        <v>2.018327961259205</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>50.10878144063022</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.82960966631223</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>13.48459198310506</v>
+        <v>6.674959772849307</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.20026785507154</v>
+      </c>
+      <c r="N22">
+        <v>16.03979395165622</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.92148207351322</v>
+        <v>37.75372660978413</v>
       </c>
       <c r="C23">
-        <v>19.29888997928104</v>
+        <v>24.357929479722</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.0525603078662</v>
+        <v>7.151056548708371</v>
       </c>
       <c r="F23">
-        <v>87.56300261958918</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.972646280187502</v>
+        <v>2.025827097020196</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>48.91750263566488</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>25.20011289963118</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>13.10144542898986</v>
+        <v>6.626607033164303</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19.75335792808201</v>
+      </c>
+      <c r="N23">
+        <v>16.05511021510337</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.17041989095886</v>
+        <v>34.53759676328195</v>
       </c>
       <c r="C24">
-        <v>17.47248521482875</v>
+        <v>22.19655303733719</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.60884501840038</v>
+        <v>6.827955660713481</v>
       </c>
       <c r="F24">
-        <v>79.29078451990914</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>2.005652916762548</v>
+        <v>2.053799030102256</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.50856929560452</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>22.82729265982434</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>11.74458650746204</v>
+        <v>6.453469479240108</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.23042308217354</v>
+      </c>
+      <c r="N24">
+        <v>16.13658446969892</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.168285657155</v>
+        <v>31.12041681532882</v>
       </c>
       <c r="C25">
-        <v>15.47976556790768</v>
+        <v>19.77816207979834</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.16654304245926</v>
+        <v>6.487588744051155</v>
       </c>
       <c r="F25">
-        <v>70.36270709276276</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>2.039550743140293</v>
+        <v>2.083556102644452</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>39.83099831337586</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.23412363920831</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.40304789928797</v>
+        <v>6.285518695895037</v>
       </c>
       <c r="M25">
+        <v>16.88164762848151</v>
+      </c>
+      <c r="N25">
+        <v>16.26554707525254</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.60844734929227</v>
+        <v>18.27792783374975</v>
       </c>
       <c r="C2">
-        <v>17.90296195367394</v>
+        <v>6.165846502341909</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.239792891305132</v>
+        <v>5.876355726292046</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>39.63691714651816</v>
       </c>
       <c r="G2">
-        <v>2.105512064821075</v>
+        <v>2.15624552217887</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.974675372611633</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.32794395712972</v>
       </c>
       <c r="L2">
-        <v>6.17598538585079</v>
+        <v>6.623529060146003</v>
       </c>
       <c r="M2">
-        <v>15.89581005778273</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.38863285765719</v>
+        <v>17.59898867749598</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85660970696008</v>
+        <v>17.37874280153488</v>
       </c>
       <c r="C3">
-        <v>16.56533487292781</v>
+        <v>5.748997350676435</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.072095169835764</v>
+        <v>5.786242747604067</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>38.63639563359713</v>
       </c>
       <c r="G3">
-        <v>2.120579408506994</v>
+        <v>2.16515329052691</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.040359085284867</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.66942981519147</v>
       </c>
       <c r="L3">
-        <v>6.109741998795623</v>
+        <v>6.464894040072408</v>
       </c>
       <c r="M3">
-        <v>15.23188115512628</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.48676623679955</v>
+        <v>17.71751771381473</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.75677933529433</v>
+        <v>16.81637549766507</v>
       </c>
       <c r="C4">
-        <v>15.7089390227855</v>
+        <v>5.480785728523381</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.968862203807037</v>
+        <v>5.732894275934126</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>38.03719757327785</v>
       </c>
       <c r="G4">
-        <v>2.129967069884619</v>
+        <v>2.170765057299713</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.081464407905578</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.2597756175581</v>
       </c>
       <c r="L4">
-        <v>6.072771857512387</v>
+        <v>6.369301578672363</v>
       </c>
       <c r="M4">
-        <v>14.82663924345443</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.55350651033564</v>
+        <v>17.79524261785885</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.30267776531725</v>
+        <v>16.58490921876803</v>
       </c>
       <c r="C5">
-        <v>15.3508488303069</v>
+        <v>5.368363788797771</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.926680755449068</v>
+        <v>5.711670170349953</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>37.79697308098987</v>
       </c>
       <c r="G5">
-        <v>2.133832611828077</v>
+        <v>2.173089328321867</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.098421412754864</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.09171058788785</v>
       </c>
       <c r="L5">
-        <v>6.058605215097546</v>
+        <v>6.33084374057994</v>
       </c>
       <c r="M5">
-        <v>14.66220348102772</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.5822334322041</v>
+        <v>17.82812547680916</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.22692504078178</v>
+        <v>16.54634496989973</v>
       </c>
       <c r="C6">
-        <v>15.29083094049248</v>
+        <v>5.349506512563346</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.919668519776983</v>
+        <v>5.708177580734054</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>37.75732718044556</v>
       </c>
       <c r="G6">
-        <v>2.134477053992031</v>
+        <v>2.173477578285314</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.101249886038947</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.0637422313746</v>
       </c>
       <c r="L6">
-        <v>6.056306238550397</v>
+        <v>6.324489087044112</v>
       </c>
       <c r="M6">
-        <v>14.63494501586607</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.58709316688469</v>
+        <v>17.83365773519176</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.75067877700383</v>
+        <v>16.81326275079262</v>
       </c>
       <c r="C7">
-        <v>15.70414689251578</v>
+        <v>5.479282262175839</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.968293843693636</v>
+        <v>5.732605928821654</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>38.03394161438352</v>
       </c>
       <c r="G7">
-        <v>2.130019032856221</v>
+        <v>2.170796249590705</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.081692246406419</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.2575132960347</v>
       </c>
       <c r="L7">
-        <v>6.072577202686376</v>
+        <v>6.368780855379197</v>
       </c>
       <c r="M7">
-        <v>14.82441860382459</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.55388786318145</v>
+        <v>17.79568123465312</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.00949826760136</v>
+        <v>17.97017383752865</v>
       </c>
       <c r="C8">
-        <v>17.44885220712917</v>
+        <v>6.024636869726186</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.181995325339188</v>
+        <v>5.844884286107989</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>39.28888651360926</v>
       </c>
       <c r="G8">
-        <v>2.110682654883854</v>
+        <v>2.159288390081808</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.997169233177577</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.10210943574685</v>
       </c>
       <c r="L8">
-        <v>6.152355930567264</v>
+        <v>6.568480721502001</v>
       </c>
       <c r="M8">
-        <v>15.66643331085922</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.42105835013065</v>
+        <v>17.63880866005386</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.24649628049481</v>
+        <v>20.14756054612328</v>
       </c>
       <c r="C9">
-        <v>20.60631953506234</v>
+        <v>6.998843367300145</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.601566317680893</v>
+        <v>6.079997224632713</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>41.86373153474406</v>
       </c>
       <c r="G9">
-        <v>2.073549066106403</v>
+        <v>2.137771393506442</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.837022536598539</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.70861789801192</v>
       </c>
       <c r="L9">
-        <v>6.339777000246903</v>
+        <v>6.972703632907193</v>
       </c>
       <c r="M9">
-        <v>17.33468484727624</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.21731001586241</v>
+        <v>17.3721840653659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.41817719345823</v>
+        <v>21.68193720073122</v>
       </c>
       <c r="C10">
-        <v>22.78896847668039</v>
+        <v>7.659857537998739</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.91477148873295</v>
+        <v>6.260812053971391</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>43.81803418509537</v>
       </c>
       <c r="G10">
-        <v>2.046261586280592</v>
+        <v>2.122481912592554</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.721952677318452</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.85106945925619</v>
       </c>
       <c r="L10">
-        <v>6.498871266396838</v>
+        <v>7.275229938591502</v>
       </c>
       <c r="M10">
-        <v>18.57184583729133</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>16.11084271659941</v>
+        <v>17.20401965966002</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.86120452489006</v>
+        <v>22.36467057248007</v>
       </c>
       <c r="C11">
-        <v>23.75866578048832</v>
+        <v>7.949536807356368</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.059725733873886</v>
+        <v>6.344621063364629</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>44.71973471451022</v>
       </c>
       <c r="G11">
-        <v>2.033712979118549</v>
+        <v>2.11560917220295</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.669966187456616</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.36168368549651</v>
       </c>
       <c r="L11">
-        <v>6.576570635769044</v>
+        <v>7.413681093375344</v>
       </c>
       <c r="M11">
-        <v>19.27695786975518</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16.07418793070159</v>
+        <v>17.13424261757899</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.40407324283475</v>
+        <v>22.62097308922289</v>
       </c>
       <c r="C12">
-        <v>24.12319826726416</v>
+        <v>8.057726097571397</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.115123905016343</v>
+        <v>6.376565792345244</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>45.06297104944667</v>
       </c>
       <c r="G12">
-        <v>2.028927912436507</v>
+        <v>2.113015753228396</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.65031373994209</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.55370033351267</v>
       </c>
       <c r="L12">
-        <v>6.606828663101805</v>
+        <v>7.466202745798724</v>
       </c>
       <c r="M12">
-        <v>19.56683163144307</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>16.0622479588334</v>
+        <v>17.1088546146576</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.28730101601484</v>
+        <v>22.56587329354691</v>
       </c>
       <c r="C13">
-        <v>24.04479647296457</v>
+        <v>8.034491229895679</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.103167565680021</v>
+        <v>6.3696768964402</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>44.98896993101608</v>
       </c>
       <c r="G13">
-        <v>2.029960185346637</v>
+        <v>2.113573932407119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.654545050208424</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.51240600078532</v>
       </c>
       <c r="L13">
-        <v>6.60027367003152</v>
+        <v>7.454887481200442</v>
       </c>
       <c r="M13">
-        <v>19.50450767122267</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>16.06472871738863</v>
+        <v>17.11427516072063</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.90593306744411</v>
+        <v>22.38580158221854</v>
       </c>
       <c r="C14">
-        <v>23.78870534455848</v>
+        <v>7.9584673054358</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.06427221644505</v>
+        <v>6.347245087657533</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>44.74793735301639</v>
       </c>
       <c r="G14">
-        <v>2.033320061948781</v>
+        <v>2.115395643533219</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.668348801816647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.37750798733854</v>
       </c>
       <c r="L14">
-        <v>6.579042802790005</v>
+        <v>7.418000343864883</v>
       </c>
       <c r="M14">
-        <v>19.30085429660869</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16.07316515518547</v>
+        <v>17.1321327652182</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.67189549593802</v>
+        <v>22.2752110903749</v>
       </c>
       <c r="C15">
-        <v>23.63151623754419</v>
+        <v>7.911706818666827</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.040518832738091</v>
+        <v>6.333531624938611</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>44.60052946619498</v>
       </c>
       <c r="G15">
-        <v>2.035373309708386</v>
+        <v>2.116512598609125</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.676807827644265</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.29470383161753</v>
       </c>
       <c r="L15">
-        <v>6.566149304856676</v>
+        <v>7.395417361053718</v>
       </c>
       <c r="M15">
-        <v>19.1757926114763</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>16.07859352077148</v>
+        <v>17.14320803251591</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.3233243642029</v>
+        <v>21.63700757609773</v>
       </c>
       <c r="C16">
-        <v>22.72518369410799</v>
+        <v>7.640711101621708</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.90536033963804</v>
+        <v>6.255364861721121</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>43.75935662659405</v>
       </c>
       <c r="G16">
-        <v>2.047077829296224</v>
+        <v>2.122932495918012</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.725355847613806</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.81751298473327</v>
       </c>
       <c r="L16">
-        <v>6.493906209682143</v>
+        <v>7.266196176546375</v>
       </c>
       <c r="M16">
-        <v>18.53489984898676</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>16.11349527452196</v>
+        <v>17.20872067796971</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.48874782678921</v>
+        <v>21.24154050683977</v>
       </c>
       <c r="C17">
-        <v>22.16367141261415</v>
+        <v>7.471694920366309</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.82317602082129</v>
+        <v>6.207798796704404</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>43.24652989072516</v>
       </c>
       <c r="G17">
-        <v>2.054214529064581</v>
+        <v>2.126890174610871</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.755218229007603</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.52240841723177</v>
       </c>
       <c r="L17">
-        <v>6.450996701149871</v>
+        <v>7.187115519414452</v>
       </c>
       <c r="M17">
-        <v>18.21158818360988</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.138084846479</v>
+        <v>17.25067832664631</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.00580549168138</v>
+        <v>21.01264144510713</v>
       </c>
       <c r="C18">
-        <v>21.83847430712263</v>
+        <v>7.373438883261979</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.776127926280552</v>
+        <v>6.180587291271344</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>42.95275907340657</v>
       </c>
       <c r="G18">
-        <v>2.058307582661054</v>
+        <v>2.129174472676821</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.772429270828456</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.35181624368567</v>
       </c>
       <c r="L18">
-        <v>6.426812832207533</v>
+        <v>7.141709831191623</v>
       </c>
       <c r="M18">
-        <v>18.02599141924208</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.15331953869537</v>
+        <v>17.27543937643468</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.84176756451113</v>
+        <v>20.93489523556469</v>
       </c>
       <c r="C19">
-        <v>21.72796682951523</v>
+        <v>7.339989788352399</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.760232350108033</v>
+        <v>6.171399736469506</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>42.85350021638626</v>
       </c>
       <c r="G19">
-        <v>2.059691772422623</v>
+        <v>2.129949340187141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.778263165689435</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.2939112440159</v>
       </c>
       <c r="L19">
-        <v>6.418707981828894</v>
+        <v>7.126350771065809</v>
       </c>
       <c r="M19">
-        <v>17.96320848500773</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.15865838833755</v>
+        <v>17.28392896962094</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.57788657554198</v>
+        <v>21.28378777434013</v>
       </c>
       <c r="C20">
-        <v>22.22367173258506</v>
+        <v>7.489794323805025</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.831900705036563</v>
+        <v>6.212847166017776</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>43.30099806926826</v>
       </c>
       <c r="G20">
-        <v>2.053456126248532</v>
+        <v>2.126468069470946</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.752035831399174</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.5539117275965</v>
       </c>
       <c r="L20">
-        <v>6.45551264371955</v>
+        <v>7.195525778403828</v>
       </c>
       <c r="M20">
-        <v>18.24596626882891</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.13535264069298</v>
+        <v>17.24614638559487</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.01803980776121</v>
+        <v>22.43875374261707</v>
       </c>
       <c r="C21">
-        <v>23.86399205913682</v>
+        <v>7.980837575998444</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.075681575662911</v>
+        <v>6.353828321111153</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>44.81868622922045</v>
       </c>
       <c r="G21">
-        <v>2.032334207946001</v>
+        <v>2.114860337926966</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.664293541659474</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.41716733772405</v>
       </c>
       <c r="L21">
-        <v>6.585255542909764</v>
+        <v>7.428832642212702</v>
       </c>
       <c r="M21">
-        <v>19.36073757714259</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>16.0706323104533</v>
+        <v>17.12685887550462</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.592502011823</v>
+        <v>23.1805810507793</v>
       </c>
       <c r="C22">
-        <v>24.9208769216223</v>
+        <v>8.293027824792587</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.238060556313494</v>
+        <v>6.447174732173126</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>45.82098073448756</v>
       </c>
       <c r="G22">
-        <v>2.018327961259205</v>
+        <v>2.107325806857234</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.607135840432661</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.97353988438721</v>
       </c>
       <c r="L22">
-        <v>6.674959772849307</v>
+        <v>7.581847319761209</v>
       </c>
       <c r="M22">
-        <v>20.20026785507154</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>16.03979395165622</v>
+        <v>17.0549686705823</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.75372660978413</v>
+        <v>22.7858466386699</v>
       </c>
       <c r="C23">
-        <v>24.357929479722</v>
+        <v>8.127176937442872</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.151056548708371</v>
+        <v>6.397248171686842</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>45.28508864865917</v>
       </c>
       <c r="G23">
-        <v>2.025827097020196</v>
+        <v>2.111343365066741</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.637631236199734</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.67731155011706</v>
       </c>
       <c r="L23">
-        <v>6.626607033164303</v>
+        <v>7.500138739647891</v>
       </c>
       <c r="M23">
-        <v>19.75335792808201</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>16.05511021510337</v>
+        <v>17.09275745327718</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.53759676328195</v>
+        <v>21.26469257730384</v>
       </c>
       <c r="C24">
-        <v>22.19655303733719</v>
+        <v>7.481614973181953</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.827955660713481</v>
+        <v>6.2105643769841</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>43.27636970007234</v>
       </c>
       <c r="G24">
-        <v>2.053799030102256</v>
+        <v>2.126658875044333</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.753474458829918</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.53967198290961</v>
       </c>
       <c r="L24">
-        <v>6.453469479240108</v>
+        <v>7.191723314996149</v>
       </c>
       <c r="M24">
-        <v>18.23042308217354</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.13658446969892</v>
+        <v>17.24819329075653</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.12041681532882</v>
+        <v>19.56947366907005</v>
       </c>
       <c r="C25">
-        <v>19.77816207979834</v>
+        <v>6.745170872692372</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.487588744051155</v>
+        <v>6.014901863675894</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>41.15575836187458</v>
       </c>
       <c r="G25">
-        <v>2.083556102644452</v>
+        <v>2.143491775502241</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.879828087930146</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.28024623419151</v>
       </c>
       <c r="L25">
-        <v>6.285518695895037</v>
+        <v>6.862233766063368</v>
       </c>
       <c r="M25">
-        <v>16.88164762848151</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.26554707525254</v>
+        <v>17.43966143458142</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.27792783374975</v>
+        <v>21.33754624274098</v>
       </c>
       <c r="C2">
-        <v>6.165846502341909</v>
+        <v>4.135940079205809</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.876355726292046</v>
+        <v>11.01900336962196</v>
       </c>
       <c r="F2">
-        <v>39.63691714651816</v>
+        <v>51.32974407439013</v>
       </c>
       <c r="G2">
-        <v>2.15624552217887</v>
+        <v>3.772469011537285</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.974675372611633</v>
+        <v>10.87603742891439</v>
       </c>
       <c r="K2">
-        <v>14.32794395712972</v>
+        <v>17.34765440042642</v>
       </c>
       <c r="L2">
-        <v>6.623529060146003</v>
+        <v>11.11243425105518</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.59898867749598</v>
+        <v>25.19527429051162</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.37874280153488</v>
+        <v>21.20996803257632</v>
       </c>
       <c r="C3">
-        <v>5.748997350676435</v>
+        <v>3.941882621224618</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.786242747604067</v>
+        <v>11.03494984647233</v>
       </c>
       <c r="F3">
-        <v>38.63639563359713</v>
+        <v>51.24501399964127</v>
       </c>
       <c r="G3">
-        <v>2.16515329052691</v>
+        <v>3.77564093418059</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.040359085284867</v>
+        <v>10.89233416895806</v>
       </c>
       <c r="K3">
-        <v>13.66942981519147</v>
+        <v>17.2638771304092</v>
       </c>
       <c r="L3">
-        <v>6.464894040072408</v>
+        <v>11.12036145659792</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.71751771381473</v>
+        <v>25.23264789273557</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.81637549766507</v>
+        <v>21.13666461007873</v>
       </c>
       <c r="C4">
-        <v>5.480785728523381</v>
+        <v>3.816859505132991</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.732894275934126</v>
+        <v>11.04623756723457</v>
       </c>
       <c r="F4">
-        <v>38.03719757327785</v>
+        <v>51.20274481621509</v>
       </c>
       <c r="G4">
-        <v>2.170765057299713</v>
+        <v>3.77769015696669</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.081464407905578</v>
+        <v>10.90282760609043</v>
       </c>
       <c r="K4">
-        <v>13.2597756175581</v>
+        <v>17.21645631513574</v>
       </c>
       <c r="L4">
-        <v>6.369301578672363</v>
+        <v>11.12708107015416</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.79524261785885</v>
+        <v>25.25745003003835</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.58490921876803</v>
+        <v>21.10808342398274</v>
       </c>
       <c r="C5">
-        <v>5.368363788797771</v>
+        <v>3.764464734514821</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.711670170349953</v>
+        <v>11.05121433979316</v>
       </c>
       <c r="F5">
-        <v>37.79697308098987</v>
+        <v>51.187981338215</v>
       </c>
       <c r="G5">
-        <v>2.173089328321867</v>
+        <v>3.778550883396352</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.098421412754864</v>
+        <v>10.90722664466</v>
       </c>
       <c r="K5">
-        <v>13.09171058788785</v>
+        <v>17.19815753396982</v>
       </c>
       <c r="L5">
-        <v>6.33084374057994</v>
+        <v>11.13028573362685</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.82812547680916</v>
+        <v>25.26802345268013</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.54634496989973</v>
+        <v>21.10341619508105</v>
       </c>
       <c r="C6">
-        <v>5.349506512563346</v>
+        <v>3.755678203940244</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.708177580734054</v>
+        <v>11.05206351250563</v>
       </c>
       <c r="F6">
-        <v>37.75732718044556</v>
+        <v>51.18567875708295</v>
       </c>
       <c r="G6">
-        <v>2.173477578285314</v>
+        <v>3.778695358324449</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.101249886038947</v>
+        <v>10.90796453417602</v>
       </c>
       <c r="K6">
-        <v>13.0637422313746</v>
+        <v>17.19518138848375</v>
       </c>
       <c r="L6">
-        <v>6.324489087044112</v>
+        <v>11.13084604791497</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.83365773519176</v>
+        <v>25.26980732789404</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81326275079262</v>
+        <v>21.13627389648268</v>
       </c>
       <c r="C7">
-        <v>5.479282262175839</v>
+        <v>3.816158706236629</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.732605928821654</v>
+        <v>11.04630315872426</v>
       </c>
       <c r="F7">
-        <v>38.03394161438352</v>
+        <v>51.20253573434974</v>
       </c>
       <c r="G7">
-        <v>2.170796249590705</v>
+        <v>3.777701661041868</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.081692246406419</v>
+        <v>10.90288643505066</v>
       </c>
       <c r="K7">
-        <v>13.2575132960347</v>
+        <v>17.21620536008622</v>
       </c>
       <c r="L7">
-        <v>6.368780855379197</v>
+        <v>11.12712240036827</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.79568123465312</v>
+        <v>25.25759073873737</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.97017383752865</v>
+        <v>21.29252932430287</v>
       </c>
       <c r="C8">
-        <v>6.024636869726186</v>
+        <v>4.070263704082012</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.844884286107989</v>
+        <v>11.02419149602352</v>
       </c>
       <c r="F8">
-        <v>39.28888651360926</v>
+        <v>51.29851002788836</v>
       </c>
       <c r="G8">
-        <v>2.159288390081808</v>
+        <v>3.773541647951203</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.997169233177577</v>
+        <v>10.88155565820482</v>
       </c>
       <c r="K8">
-        <v>14.10210943574685</v>
+        <v>17.3179433635649</v>
       </c>
       <c r="L8">
-        <v>6.568480721502001</v>
+        <v>11.11478350371579</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.63880866005386</v>
+        <v>25.2077757853756</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.14756054612328</v>
+        <v>21.63763174447571</v>
       </c>
       <c r="C9">
-        <v>6.998843367300145</v>
+        <v>4.520933607138216</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.079997224632713</v>
+        <v>10.99267661223169</v>
       </c>
       <c r="F9">
-        <v>41.86373153474406</v>
+        <v>51.56367372614571</v>
       </c>
       <c r="G9">
-        <v>2.137771393506442</v>
+        <v>3.766186269765007</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.837022536598539</v>
+        <v>10.84357429968304</v>
       </c>
       <c r="K9">
-        <v>15.70861789801192</v>
+        <v>17.54861107270462</v>
       </c>
       <c r="L9">
-        <v>6.972703632907193</v>
+        <v>11.10525380997054</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.3721840653659</v>
+        <v>25.12480459620993</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68193720073122</v>
+        <v>21.91299261086929</v>
       </c>
       <c r="C10">
-        <v>7.659857537998739</v>
+        <v>4.821904272693271</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.260812053971391</v>
+        <v>10.97670510972501</v>
       </c>
       <c r="F10">
-        <v>43.81803418509537</v>
+        <v>51.80469982671394</v>
       </c>
       <c r="G10">
-        <v>2.122481912592554</v>
+        <v>3.761265629241763</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.721952677318452</v>
+        <v>10.81799093168531</v>
       </c>
       <c r="K10">
-        <v>16.85106945925619</v>
+        <v>17.73601347775944</v>
       </c>
       <c r="L10">
-        <v>7.275229938591502</v>
+        <v>11.10714725440744</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.20401965966002</v>
+        <v>25.07281780591999</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.36467057248007</v>
+        <v>22.04258711002054</v>
       </c>
       <c r="C11">
-        <v>7.949536807356368</v>
+        <v>4.952117625723457</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.344621063364629</v>
+        <v>10.9709897314059</v>
       </c>
       <c r="F11">
-        <v>44.71973471451022</v>
+        <v>51.92419449931908</v>
       </c>
       <c r="G11">
-        <v>2.11560917220295</v>
+        <v>3.759130820672751</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.669966187456616</v>
+        <v>10.80685128033625</v>
       </c>
       <c r="K11">
-        <v>17.36168368549651</v>
+        <v>17.82490860564288</v>
       </c>
       <c r="L11">
-        <v>7.413681093375344</v>
+        <v>11.10992750522756</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.13424261757899</v>
+        <v>25.05111631922987</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.62097308922289</v>
+        <v>22.09224743339025</v>
       </c>
       <c r="C12">
-        <v>8.057726097571397</v>
+        <v>5.000452573158848</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.376565792345244</v>
+        <v>10.96904752451119</v>
       </c>
       <c r="F12">
-        <v>45.06297104944667</v>
+        <v>51.97084142965353</v>
       </c>
       <c r="G12">
-        <v>2.113015753228396</v>
+        <v>3.75833722940887</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.65031373994209</v>
+        <v>10.80270425783332</v>
       </c>
       <c r="K12">
-        <v>17.55370033351267</v>
+        <v>17.85907206466082</v>
       </c>
       <c r="L12">
-        <v>7.466202745798724</v>
+        <v>11.11125492636194</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.1088546146576</v>
+        <v>25.04317867009377</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.56587329354691</v>
+        <v>22.08152674793774</v>
       </c>
       <c r="C13">
-        <v>8.034491229895679</v>
+        <v>4.990086241812653</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.3696768964402</v>
+        <v>10.96945594997319</v>
       </c>
       <c r="F13">
-        <v>44.98896993101608</v>
+        <v>51.96073338287896</v>
       </c>
       <c r="G13">
-        <v>2.113573932407119</v>
+        <v>3.758507485966422</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.654545050208424</v>
+        <v>10.8035942266668</v>
       </c>
       <c r="K13">
-        <v>17.51240600078532</v>
+        <v>17.85169246017912</v>
       </c>
       <c r="L13">
-        <v>7.454887481200442</v>
+        <v>11.11095685236179</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.11427516072063</v>
+        <v>25.04487571854188</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.38580158221854</v>
+        <v>22.04666117303923</v>
       </c>
       <c r="C14">
-        <v>7.9584673054358</v>
+        <v>4.9561137443633</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.347245087657533</v>
+        <v>10.97082549889903</v>
       </c>
       <c r="F14">
-        <v>44.74793735301639</v>
+        <v>51.92800429332713</v>
       </c>
       <c r="G14">
-        <v>2.115395643533219</v>
+        <v>3.759065235026002</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.668348801816647</v>
+        <v>10.80650867484735</v>
       </c>
       <c r="K14">
-        <v>17.37750798733854</v>
+        <v>17.82770935397652</v>
       </c>
       <c r="L14">
-        <v>7.418000343864883</v>
+        <v>11.1100312177294</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.1321327652182</v>
+        <v>25.05045766674772</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.2752110903749</v>
+        <v>22.0253801559202</v>
       </c>
       <c r="C15">
-        <v>7.911706818666827</v>
+        <v>4.935177486986307</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.333531624938611</v>
+        <v>10.97169328360424</v>
       </c>
       <c r="F15">
-        <v>44.60052946619498</v>
+        <v>51.90813808445925</v>
       </c>
       <c r="G15">
-        <v>2.116512598609125</v>
+        <v>3.75940879917819</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.676807827644265</v>
+        <v>10.8083031366416</v>
       </c>
       <c r="K15">
-        <v>17.29470383161753</v>
+        <v>17.81308352040837</v>
       </c>
       <c r="L15">
-        <v>7.395417361053718</v>
+        <v>11.10949995874477</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.14320803251591</v>
+        <v>25.05391327111043</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.63700757609773</v>
+        <v>21.90460731423576</v>
       </c>
       <c r="C16">
-        <v>7.640711101621708</v>
+        <v>4.813258747022449</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.255364861721121</v>
+        <v>10.97710974643246</v>
       </c>
       <c r="F16">
-        <v>43.75935662659405</v>
+        <v>51.79708715318105</v>
       </c>
       <c r="G16">
-        <v>2.122932495918012</v>
+        <v>3.761407221702185</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.725355847613806</v>
+        <v>10.81872893301622</v>
       </c>
       <c r="K16">
-        <v>16.81751298473327</v>
+        <v>17.73027534364638</v>
       </c>
       <c r="L16">
-        <v>7.266196176546375</v>
+        <v>11.10700406092771</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.20872067796971</v>
+        <v>25.07427525393007</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.24154050683977</v>
+        <v>21.83160039685891</v>
       </c>
       <c r="C17">
-        <v>7.471694920366309</v>
+        <v>4.736741274382414</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.207798796704404</v>
+        <v>10.98082902645934</v>
       </c>
       <c r="F17">
-        <v>43.24652989072516</v>
+        <v>51.73147060968649</v>
       </c>
       <c r="G17">
-        <v>2.126890174610871</v>
+        <v>3.762659666701053</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.755218229007603</v>
+        <v>10.82525221779918</v>
       </c>
       <c r="K17">
-        <v>16.52240841723177</v>
+        <v>17.68039245182382</v>
       </c>
       <c r="L17">
-        <v>7.187115519414452</v>
+        <v>11.10596348270745</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.25067832664631</v>
+        <v>25.08726561148275</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.01264144510713</v>
+        <v>21.79001874769317</v>
       </c>
       <c r="C18">
-        <v>7.373438883261979</v>
+        <v>4.692100309014537</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.180587291271344</v>
+        <v>10.9831142166836</v>
       </c>
       <c r="F18">
-        <v>42.95275907340657</v>
+        <v>51.69465819353523</v>
       </c>
       <c r="G18">
-        <v>2.129174472676821</v>
+        <v>3.763389797793988</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.772429270828456</v>
+        <v>10.82905116602682</v>
       </c>
       <c r="K18">
-        <v>16.35181624368567</v>
+        <v>17.65204566075337</v>
       </c>
       <c r="L18">
-        <v>7.141709831191623</v>
+        <v>11.10554567600957</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.27543937643468</v>
+        <v>25.09492062472861</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.93489523556469</v>
+        <v>21.77601144737534</v>
       </c>
       <c r="C19">
-        <v>7.339989788352399</v>
+        <v>4.676877780859476</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.171399736469506</v>
+        <v>10.98391303573916</v>
       </c>
       <c r="F19">
-        <v>42.85350021638626</v>
+        <v>51.68235417842804</v>
       </c>
       <c r="G19">
-        <v>2.129949340187141</v>
+        <v>3.763638686165531</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.778263165689435</v>
+        <v>10.83034549485624</v>
       </c>
       <c r="K19">
-        <v>16.2939112440159</v>
+        <v>17.64250779241519</v>
       </c>
       <c r="L19">
-        <v>7.126350771065809</v>
+        <v>11.10543528869689</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.28392896962094</v>
+        <v>25.09754395790844</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.28378777434013</v>
+        <v>21.83932994034169</v>
       </c>
       <c r="C20">
-        <v>7.489794323805025</v>
+        <v>4.744951991214823</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.212847166017776</v>
+        <v>10.9804180024007</v>
       </c>
       <c r="F20">
-        <v>43.30099806926826</v>
+        <v>51.738359644925</v>
       </c>
       <c r="G20">
-        <v>2.126468069470946</v>
+        <v>3.762525332514861</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.752035831399174</v>
+        <v>10.82455294869664</v>
       </c>
       <c r="K20">
-        <v>16.5539117275965</v>
+        <v>17.68566707939424</v>
       </c>
       <c r="L20">
-        <v>7.195525778403828</v>
+        <v>11.10605556085496</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.24614638559487</v>
+        <v>25.08586379342918</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.43875374261707</v>
+        <v>22.05688644322506</v>
       </c>
       <c r="C21">
-        <v>7.980837575998444</v>
+        <v>4.966118798167145</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.353828321111153</v>
+        <v>10.97041720872963</v>
       </c>
       <c r="F21">
-        <v>44.81868622922045</v>
+        <v>51.93757987430535</v>
       </c>
       <c r="G21">
-        <v>2.114860337926966</v>
+        <v>3.758901009226349</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.664293541659474</v>
+        <v>10.8056506978182</v>
       </c>
       <c r="K21">
-        <v>17.41716733772405</v>
+        <v>17.83474037237434</v>
       </c>
       <c r="L21">
-        <v>7.428832642212702</v>
+        <v>11.11029565784916</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.12685887550462</v>
+        <v>25.04881050637525</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.1805810507793</v>
+        <v>22.20246815975867</v>
       </c>
       <c r="C22">
-        <v>8.293027824792587</v>
+        <v>5.104983382634728</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.447174732173126</v>
+        <v>10.96517516416158</v>
       </c>
       <c r="F22">
-        <v>45.82098073448756</v>
+        <v>52.07591361367714</v>
       </c>
       <c r="G22">
-        <v>2.107325806857234</v>
+        <v>3.756618614893644</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.607135840432661</v>
+        <v>10.79371254563097</v>
       </c>
       <c r="K22">
-        <v>17.97353988438721</v>
+        <v>17.93507601282671</v>
       </c>
       <c r="L22">
-        <v>7.581847319761209</v>
+        <v>11.11466666630915</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.0549686705823</v>
+        <v>25.02622753940409</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.7858466386699</v>
+        <v>22.12447026611363</v>
       </c>
       <c r="C23">
-        <v>8.127176937442872</v>
+        <v>5.031391447478287</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.397248171686842</v>
+        <v>10.96785482103481</v>
       </c>
       <c r="F23">
-        <v>45.28508864865917</v>
+        <v>52.0013451742871</v>
       </c>
       <c r="G23">
-        <v>2.111343365066741</v>
+        <v>3.757828902373415</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.637631236199734</v>
+        <v>10.80004625002592</v>
       </c>
       <c r="K23">
-        <v>17.67731155011706</v>
+        <v>17.88126688095601</v>
       </c>
       <c r="L23">
-        <v>7.500138739647891</v>
+        <v>11.11218786841225</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.09275745327718</v>
+        <v>25.03813096902917</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.26469257730384</v>
+        <v>21.83583419300161</v>
       </c>
       <c r="C24">
-        <v>7.481614973181953</v>
+        <v>4.741241950116279</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.2105643769841</v>
+        <v>10.98060336867552</v>
       </c>
       <c r="F24">
-        <v>43.27636970007234</v>
+        <v>51.73524227165294</v>
       </c>
       <c r="G24">
-        <v>2.126658875044333</v>
+        <v>3.762586033583638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.753474458829918</v>
+        <v>10.82486893676334</v>
       </c>
       <c r="K24">
-        <v>16.53967198290961</v>
+        <v>17.68328138577385</v>
       </c>
       <c r="L24">
-        <v>7.191723314996149</v>
+        <v>11.10601337020159</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.24819329075653</v>
+        <v>25.08649697384813</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.56947366907005</v>
+        <v>21.54030666196599</v>
       </c>
       <c r="C25">
-        <v>6.745170872692372</v>
+        <v>4.404242486107412</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.014901863675894</v>
+        <v>10.99993789815655</v>
       </c>
       <c r="F25">
-        <v>41.15575836187458</v>
+        <v>51.48376634615395</v>
       </c>
       <c r="G25">
-        <v>2.143491775502241</v>
+        <v>3.768090794540081</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.879828087930146</v>
+        <v>10.85343982185936</v>
       </c>
       <c r="K25">
-        <v>15.28024623419151</v>
+        <v>17.4829783191409</v>
       </c>
       <c r="L25">
-        <v>6.862233766063368</v>
+        <v>11.10626590330503</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.43966143458142</v>
+        <v>25.14567500005326</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33754624274098</v>
+        <v>18.27792783374977</v>
       </c>
       <c r="C2">
-        <v>4.135940079205809</v>
+        <v>6.165846502341768</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.01900336962196</v>
+        <v>5.876355726291912</v>
       </c>
       <c r="F2">
-        <v>51.32974407439013</v>
+        <v>39.63691714651817</v>
       </c>
       <c r="G2">
-        <v>3.772469011537285</v>
+        <v>2.156245522178869</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.87603742891439</v>
+        <v>6.97467537261163</v>
       </c>
       <c r="K2">
-        <v>17.34765440042642</v>
+        <v>14.32794395712975</v>
       </c>
       <c r="L2">
-        <v>11.11243425105518</v>
+        <v>6.623529060145962</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.19527429051162</v>
+        <v>17.59898867749603</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.20996803257632</v>
+        <v>17.37874280153486</v>
       </c>
       <c r="C3">
-        <v>3.941882621224618</v>
+        <v>5.748997350676463</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.03494984647233</v>
+        <v>5.786242747603924</v>
       </c>
       <c r="F3">
-        <v>51.24501399964127</v>
+        <v>38.636395633597</v>
       </c>
       <c r="G3">
-        <v>3.77564093418059</v>
+        <v>2.165153290526646</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.89233416895806</v>
+        <v>7.04035908528483</v>
       </c>
       <c r="K3">
-        <v>17.2638771304092</v>
+        <v>13.66942981519147</v>
       </c>
       <c r="L3">
-        <v>11.12036145659792</v>
+        <v>6.464894040072293</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>25.23264789273557</v>
+        <v>17.71751771381472</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.13666461007873</v>
+        <v>16.81637549766513</v>
       </c>
       <c r="C4">
-        <v>3.816859505132991</v>
+        <v>5.480785728523297</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.04623756723457</v>
+        <v>5.732894275934186</v>
       </c>
       <c r="F4">
-        <v>51.20274481621509</v>
+        <v>38.03719757327802</v>
       </c>
       <c r="G4">
-        <v>3.77769015696669</v>
+        <v>2.170765057299314</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.90282760609043</v>
+        <v>7.081464407905679</v>
       </c>
       <c r="K4">
-        <v>17.21645631513574</v>
+        <v>13.25977561755816</v>
       </c>
       <c r="L4">
-        <v>11.12708107015416</v>
+        <v>6.369301578672452</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>25.25745003003835</v>
+        <v>17.79524261785897</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10808342398274</v>
+        <v>16.58490921876798</v>
       </c>
       <c r="C5">
-        <v>3.764464734514821</v>
+        <v>5.368363788797701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.05121433979316</v>
+        <v>5.711670170349889</v>
       </c>
       <c r="F5">
-        <v>51.187981338215</v>
+        <v>37.79697308098978</v>
       </c>
       <c r="G5">
-        <v>3.778550883396352</v>
+        <v>2.173089328321464</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.90722664466</v>
+        <v>7.098421412754857</v>
       </c>
       <c r="K5">
-        <v>17.19815753396982</v>
+        <v>13.09171058788784</v>
       </c>
       <c r="L5">
-        <v>11.13028573362685</v>
+        <v>6.330843740579974</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25.26802345268013</v>
+        <v>17.82812547680914</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10341619508105</v>
+        <v>16.54634496989978</v>
       </c>
       <c r="C6">
-        <v>3.755678203940244</v>
+        <v>5.349506512563261</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.05206351250563</v>
+        <v>5.708177580734048</v>
       </c>
       <c r="F6">
-        <v>51.18567875708295</v>
+        <v>37.75732718044561</v>
       </c>
       <c r="G6">
-        <v>3.778695358324449</v>
+        <v>2.173477578285314</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.90796453417602</v>
+        <v>7.101249886038978</v>
       </c>
       <c r="K6">
-        <v>17.19518138848375</v>
+        <v>13.06374223137465</v>
       </c>
       <c r="L6">
-        <v>11.13084604791497</v>
+        <v>6.324489087044151</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>25.26980732789404</v>
+        <v>17.83365773519178</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.13627389648268</v>
+        <v>16.81326275079262</v>
       </c>
       <c r="C7">
-        <v>3.816158706236629</v>
+        <v>5.479282262175939</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.04630315872426</v>
+        <v>5.7326059288216</v>
       </c>
       <c r="F7">
-        <v>51.20253573434974</v>
+        <v>38.0339416143835</v>
       </c>
       <c r="G7">
-        <v>3.777701661041868</v>
+        <v>2.170796249590705</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.90288643505066</v>
+        <v>7.081692246406386</v>
       </c>
       <c r="K7">
-        <v>17.21620536008622</v>
+        <v>13.25751329603469</v>
       </c>
       <c r="L7">
-        <v>11.12712240036827</v>
+        <v>6.368780855379122</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>25.25759073873737</v>
+        <v>17.79568123465312</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.29252932430287</v>
+        <v>17.97017383752872</v>
       </c>
       <c r="C8">
-        <v>4.070263704082012</v>
+        <v>6.024636869726426</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.02419149602352</v>
+        <v>5.844884286108028</v>
       </c>
       <c r="F8">
-        <v>51.29851002788836</v>
+        <v>39.28888651360924</v>
       </c>
       <c r="G8">
-        <v>3.773541647951203</v>
+        <v>2.159288390081806</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.88155565820482</v>
+        <v>6.997169233177678</v>
       </c>
       <c r="K8">
-        <v>17.3179433635649</v>
+        <v>14.10210943574686</v>
       </c>
       <c r="L8">
-        <v>11.11478350371579</v>
+        <v>6.568480721501967</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.2077757853756</v>
+        <v>17.63880866005386</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.63763174447571</v>
+        <v>20.14756054612328</v>
       </c>
       <c r="C9">
-        <v>4.520933607138216</v>
+        <v>6.998843367300029</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.99267661223169</v>
+        <v>6.079997224632719</v>
       </c>
       <c r="F9">
-        <v>51.56367372614571</v>
+        <v>41.86373153474393</v>
       </c>
       <c r="G9">
-        <v>3.766186269765007</v>
+        <v>2.137771393506309</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.84357429968304</v>
+        <v>6.837022536598577</v>
       </c>
       <c r="K9">
-        <v>17.54861107270462</v>
+        <v>15.70861789801191</v>
       </c>
       <c r="L9">
-        <v>11.10525380997054</v>
+        <v>6.97270363290717</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.12480459620993</v>
+        <v>17.37218406536586</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.91299261086929</v>
+        <v>21.68193720073122</v>
       </c>
       <c r="C10">
-        <v>4.821904272693271</v>
+        <v>7.659857537998681</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.97670510972501</v>
+        <v>6.260812053971378</v>
       </c>
       <c r="F10">
-        <v>51.80469982671394</v>
+        <v>43.81803418509534</v>
       </c>
       <c r="G10">
-        <v>3.761265629241763</v>
+        <v>2.122481912592691</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.81799093168531</v>
+        <v>6.721952677318418</v>
       </c>
       <c r="K10">
-        <v>17.73601347775944</v>
+        <v>16.85106945925621</v>
       </c>
       <c r="L10">
-        <v>11.10714725440744</v>
+        <v>7.275229938591527</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.07281780591999</v>
+        <v>17.20401965965988</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.04258711002054</v>
+        <v>22.36467057248007</v>
       </c>
       <c r="C11">
-        <v>4.952117625723457</v>
+        <v>7.94953680735636</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.9709897314059</v>
+        <v>6.344621063364602</v>
       </c>
       <c r="F11">
-        <v>51.92419449931908</v>
+        <v>44.7197347145102</v>
       </c>
       <c r="G11">
-        <v>3.759130820672751</v>
+        <v>2.11560917220295</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.80685128033625</v>
+        <v>6.669966187456556</v>
       </c>
       <c r="K11">
-        <v>17.82490860564288</v>
+        <v>17.36168368549651</v>
       </c>
       <c r="L11">
-        <v>11.10992750522756</v>
+        <v>7.413681093375326</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.05111631922987</v>
+        <v>17.13424261757896</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.09224743339025</v>
+        <v>22.62097308922289</v>
       </c>
       <c r="C12">
-        <v>5.000452573158848</v>
+        <v>8.057726097571575</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.96904752451119</v>
+        <v>6.376565792345397</v>
       </c>
       <c r="F12">
-        <v>51.97084142965353</v>
+        <v>45.06297104944657</v>
       </c>
       <c r="G12">
-        <v>3.75833722940887</v>
+        <v>2.113015753228392</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.80270425783332</v>
+        <v>6.65031373994212</v>
       </c>
       <c r="K12">
-        <v>17.85907206466082</v>
+        <v>17.55370033351266</v>
       </c>
       <c r="L12">
-        <v>11.11125492636194</v>
+        <v>7.466202745798727</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.04317867009377</v>
+        <v>17.10885461465742</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08152674793774</v>
+        <v>22.56587329354693</v>
       </c>
       <c r="C13">
-        <v>4.990086241812653</v>
+        <v>8.03449122989578</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.96945594997319</v>
+        <v>6.3696768964401</v>
       </c>
       <c r="F13">
-        <v>51.96073338287896</v>
+        <v>44.98896993101616</v>
       </c>
       <c r="G13">
-        <v>3.758507485966422</v>
+        <v>2.113573932407381</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.8035942266668</v>
+        <v>6.654545050208238</v>
       </c>
       <c r="K13">
-        <v>17.85169246017912</v>
+        <v>17.51240600078535</v>
       </c>
       <c r="L13">
-        <v>11.11095685236179</v>
+        <v>7.454887481200362</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.04487571854188</v>
+        <v>17.11427516072071</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.04666117303923</v>
+        <v>22.38580158221854</v>
       </c>
       <c r="C14">
-        <v>4.9561137443633</v>
+        <v>7.958467305435915</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.97082549889903</v>
+        <v>6.347245087657635</v>
       </c>
       <c r="F14">
-        <v>51.92800429332713</v>
+        <v>44.74793735301647</v>
       </c>
       <c r="G14">
-        <v>3.759065235026002</v>
+        <v>2.115395643533214</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.80650867484735</v>
+        <v>6.668348801816743</v>
       </c>
       <c r="K14">
-        <v>17.82770935397652</v>
+        <v>17.37750798733856</v>
       </c>
       <c r="L14">
-        <v>11.1100312177294</v>
+        <v>7.418000343864933</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.05045766674772</v>
+        <v>17.13213276521821</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.0253801559202</v>
+        <v>22.27521109037492</v>
       </c>
       <c r="C15">
-        <v>4.935177486986307</v>
+        <v>7.911706818666755</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.97169328360424</v>
+        <v>6.333531624938543</v>
       </c>
       <c r="F15">
-        <v>51.90813808445925</v>
+        <v>44.60052946619501</v>
       </c>
       <c r="G15">
-        <v>3.75940879917819</v>
+        <v>2.116512598608858</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.8083031366416</v>
+        <v>6.676807827644235</v>
       </c>
       <c r="K15">
-        <v>17.81308352040837</v>
+        <v>17.29470383161753</v>
       </c>
       <c r="L15">
-        <v>11.10949995874477</v>
+        <v>7.395417361053718</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.05391327111043</v>
+        <v>17.14320803251595</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.90460731423576</v>
+        <v>21.63700757609771</v>
       </c>
       <c r="C16">
-        <v>4.813258747022449</v>
+        <v>7.640711101621476</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.97710974643246</v>
+        <v>6.255364861721151</v>
       </c>
       <c r="F16">
-        <v>51.79708715318105</v>
+        <v>43.75935662659393</v>
       </c>
       <c r="G16">
-        <v>3.761407221702185</v>
+        <v>2.122932495918012</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.81872893301622</v>
+        <v>6.725355847613712</v>
       </c>
       <c r="K16">
-        <v>17.73027534364638</v>
+        <v>16.81751298473325</v>
       </c>
       <c r="L16">
-        <v>11.10700406092771</v>
+        <v>7.26619617654643</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.07427525393007</v>
+        <v>17.20872067796953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.83160039685891</v>
+        <v>21.24154050683978</v>
       </c>
       <c r="C17">
-        <v>4.736741274382414</v>
+        <v>7.471694920366237</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.98082902645934</v>
+        <v>6.207798796704404</v>
       </c>
       <c r="F17">
-        <v>51.73147060968649</v>
+        <v>43.24652989072519</v>
       </c>
       <c r="G17">
-        <v>3.762659666701053</v>
+        <v>2.126890174610736</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.82525221779918</v>
+        <v>6.755218229007666</v>
       </c>
       <c r="K17">
-        <v>17.68039245182382</v>
+        <v>16.52240841723179</v>
       </c>
       <c r="L17">
-        <v>11.10596348270745</v>
+        <v>7.187115519414489</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.08726561148275</v>
+        <v>17.25067832664629</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.79001874769317</v>
+        <v>21.0126414451071</v>
       </c>
       <c r="C18">
-        <v>4.692100309014537</v>
+        <v>7.373438883262053</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.9831142166836</v>
+        <v>6.180587291271431</v>
       </c>
       <c r="F18">
-        <v>51.69465819353523</v>
+        <v>42.95275907340645</v>
       </c>
       <c r="G18">
-        <v>3.763389797793988</v>
+        <v>2.129174472676688</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.82905116602682</v>
+        <v>6.772429270828491</v>
       </c>
       <c r="K18">
-        <v>17.65204566075337</v>
+        <v>16.35181624368564</v>
       </c>
       <c r="L18">
-        <v>11.10554567600957</v>
+        <v>7.141709831191627</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.09492062472861</v>
+        <v>17.27543937643455</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.77601144737534</v>
+        <v>20.93489523556471</v>
       </c>
       <c r="C19">
-        <v>4.676877780859476</v>
+        <v>7.339989788352569</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.98391303573916</v>
+        <v>6.171399736469542</v>
       </c>
       <c r="F19">
-        <v>51.68235417842804</v>
+        <v>42.85350021638635</v>
       </c>
       <c r="G19">
-        <v>3.763638686165531</v>
+        <v>2.129949340187141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.83034549485624</v>
+        <v>6.778263165689434</v>
       </c>
       <c r="K19">
-        <v>17.64250779241519</v>
+        <v>16.2939112440159</v>
       </c>
       <c r="L19">
-        <v>11.10543528869689</v>
+        <v>7.126350771065831</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.09754395790844</v>
+        <v>17.28392896962098</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.83932994034169</v>
+        <v>21.28378777434011</v>
       </c>
       <c r="C20">
-        <v>4.744951991214823</v>
+        <v>7.489794323805053</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.9804180024007</v>
+        <v>6.212847166017881</v>
       </c>
       <c r="F20">
-        <v>51.738359644925</v>
+        <v>43.30099806926822</v>
       </c>
       <c r="G20">
-        <v>3.762525332514861</v>
+        <v>2.126468069470675</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.82455294869664</v>
+        <v>6.752035831399235</v>
       </c>
       <c r="K20">
-        <v>17.68566707939424</v>
+        <v>16.5539117275965</v>
       </c>
       <c r="L20">
-        <v>11.10605556085496</v>
+        <v>7.195525778403863</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.08586379342918</v>
+        <v>17.24614638559482</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.05688644322506</v>
+        <v>22.43875374261708</v>
       </c>
       <c r="C21">
-        <v>4.966118798167145</v>
+        <v>7.980837575998486</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.97041720872963</v>
+        <v>6.35382832111115</v>
       </c>
       <c r="F21">
-        <v>51.93757987430535</v>
+        <v>44.81868622922046</v>
       </c>
       <c r="G21">
-        <v>3.758901009226349</v>
+        <v>2.114860337926834</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.8056506978182</v>
+        <v>6.664293541659527</v>
       </c>
       <c r="K21">
-        <v>17.83474037237434</v>
+        <v>17.41716733772403</v>
       </c>
       <c r="L21">
-        <v>11.11029565784916</v>
+        <v>7.428832642212667</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.04881050637525</v>
+        <v>17.1268588755047</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.20246815975867</v>
+        <v>23.18058105077933</v>
       </c>
       <c r="C22">
-        <v>5.104983382634728</v>
+        <v>8.293027824792558</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.96517516416158</v>
+        <v>6.44717473217315</v>
       </c>
       <c r="F22">
-        <v>52.07591361367714</v>
+        <v>45.82098073448758</v>
       </c>
       <c r="G22">
-        <v>3.756618614893644</v>
+        <v>2.107325806857098</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.79371254563097</v>
+        <v>6.607135840432697</v>
       </c>
       <c r="K22">
-        <v>17.93507601282671</v>
+        <v>17.97353988438722</v>
       </c>
       <c r="L22">
-        <v>11.11466666630915</v>
+        <v>7.581847319761213</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.02622753940409</v>
+        <v>17.05496867058233</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.12447026611363</v>
+        <v>22.78584663866989</v>
       </c>
       <c r="C23">
-        <v>5.031391447478287</v>
+        <v>8.127176937442872</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.96785482103481</v>
+        <v>6.397248171686868</v>
       </c>
       <c r="F23">
-        <v>52.0013451742871</v>
+        <v>45.28508864865911</v>
       </c>
       <c r="G23">
-        <v>3.757828902373415</v>
+        <v>2.111343365066742</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.80004625002592</v>
+        <v>6.637631236199762</v>
       </c>
       <c r="K23">
-        <v>17.88126688095601</v>
+        <v>17.67731155011706</v>
       </c>
       <c r="L23">
-        <v>11.11218786841225</v>
+        <v>7.500138739647923</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.03813096902917</v>
+        <v>17.09275745327717</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.83583419300161</v>
+        <v>21.26469257730387</v>
       </c>
       <c r="C24">
-        <v>4.741241950116279</v>
+        <v>7.481614973182054</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.98060336867552</v>
+        <v>6.210564376984101</v>
       </c>
       <c r="F24">
-        <v>51.73524227165294</v>
+        <v>43.27636970007248</v>
       </c>
       <c r="G24">
-        <v>3.762586033583638</v>
+        <v>2.126658875044198</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.82486893676334</v>
+        <v>6.753474458829925</v>
       </c>
       <c r="K24">
-        <v>17.68328138577385</v>
+        <v>16.53967198290963</v>
       </c>
       <c r="L24">
-        <v>11.10601337020159</v>
+        <v>7.191723314996186</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.08649697384813</v>
+        <v>17.24819329075658</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.54030666196599</v>
+        <v>19.56947366907005</v>
       </c>
       <c r="C25">
-        <v>4.404242486107412</v>
+        <v>6.745170872692301</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.99993789815655</v>
+        <v>6.014901863675841</v>
       </c>
       <c r="F25">
-        <v>51.48376634615395</v>
+        <v>41.1557583618746</v>
       </c>
       <c r="G25">
-        <v>3.768090794540081</v>
+        <v>2.143491775502108</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.85343982185936</v>
+        <v>6.879828087930171</v>
       </c>
       <c r="K25">
-        <v>17.4829783191409</v>
+        <v>15.2802462341915</v>
       </c>
       <c r="L25">
-        <v>11.10626590330503</v>
+        <v>6.86223376606334</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.14567500005326</v>
+        <v>17.43966143458147</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.27792783374977</v>
+        <v>19.82627228660855</v>
       </c>
       <c r="C2">
-        <v>6.165846502341768</v>
+        <v>13.66188516925587</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.876355726291912</v>
+        <v>7.844185788382503</v>
       </c>
       <c r="F2">
-        <v>39.63691714651817</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.156245522178869</v>
+        <v>32.41780871589166</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.184559612993059</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.78018630981378</v>
       </c>
       <c r="J2">
-        <v>6.97467537261163</v>
+        <v>10.86575747706335</v>
       </c>
       <c r="K2">
-        <v>14.32794395712975</v>
+        <v>16.90931349975166</v>
       </c>
       <c r="L2">
-        <v>6.623529060145962</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.59898867749603</v>
+        <v>6.749286405875066</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.50746841377089</v>
+      </c>
+      <c r="P2">
+        <v>12.786151669508</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.37874280153486</v>
+        <v>18.5540284202461</v>
       </c>
       <c r="C3">
-        <v>5.748997350676463</v>
+        <v>12.8737950915499</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.786242747603924</v>
+        <v>7.697105053235441</v>
       </c>
       <c r="F3">
-        <v>38.636395633597</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.165153290526646</v>
+        <v>31.28708458957313</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.400913778955558</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.966677412384515</v>
       </c>
       <c r="J3">
-        <v>7.04035908528483</v>
+        <v>10.7521181117261</v>
       </c>
       <c r="K3">
-        <v>13.66942981519147</v>
+        <v>16.82132051963174</v>
       </c>
       <c r="L3">
-        <v>6.464894040072293</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.71751771381472</v>
+        <v>6.570647402601907</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.9272264053146</v>
+      </c>
+      <c r="P3">
+        <v>12.9219711806804</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.81637549766513</v>
+        <v>17.72559756151128</v>
       </c>
       <c r="C4">
-        <v>5.480785728523297</v>
+        <v>12.36745958205915</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.732894275934186</v>
+        <v>7.604255354504401</v>
       </c>
       <c r="F4">
-        <v>38.03719757327802</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.170765057299314</v>
+        <v>30.58358820271396</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.538304261847567</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.085935419694266</v>
       </c>
       <c r="J4">
-        <v>7.081464407905679</v>
+        <v>10.68501661078104</v>
       </c>
       <c r="K4">
-        <v>13.25977561755816</v>
+        <v>16.77083958707557</v>
       </c>
       <c r="L4">
-        <v>6.369301578672452</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.79524261785897</v>
+        <v>6.458515564504743</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.5564016337182</v>
+      </c>
+      <c r="P4">
+        <v>13.00702952286335</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.58490921876798</v>
+        <v>17.36891073768643</v>
       </c>
       <c r="C5">
-        <v>5.368363788797701</v>
+        <v>12.16029758047971</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.711670170349889</v>
+        <v>7.565247236910666</v>
       </c>
       <c r="F5">
-        <v>37.79697308098978</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.173089328321464</v>
+        <v>30.27181248443066</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.595892080506026</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.138688792697415</v>
       </c>
       <c r="J5">
-        <v>7.098421412754857</v>
+        <v>10.6541421757496</v>
       </c>
       <c r="K5">
-        <v>13.09171058788784</v>
+        <v>16.74287297244038</v>
       </c>
       <c r="L5">
-        <v>6.330843740579974</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.82812547680914</v>
+        <v>6.4126260675617</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.39958973092886</v>
+      </c>
+      <c r="P5">
+        <v>13.04214636483407</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.54634496989978</v>
+        <v>17.30010447226121</v>
       </c>
       <c r="C6">
-        <v>5.349506512563261</v>
+        <v>12.13140870891911</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.708177580734048</v>
+        <v>7.558107327655953</v>
       </c>
       <c r="F6">
-        <v>37.75732718044561</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.173477578285314</v>
+        <v>30.19163230720345</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.606057969146446</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.151305931121776</v>
       </c>
       <c r="J6">
-        <v>7.101249886038978</v>
+        <v>10.64392071618714</v>
       </c>
       <c r="K6">
-        <v>13.06374223137465</v>
+        <v>16.72818644214827</v>
       </c>
       <c r="L6">
-        <v>6.324489087044151</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.83365773519178</v>
+        <v>6.40544583904688</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.37066038111305</v>
+      </c>
+      <c r="P6">
+        <v>13.04805077794534</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81326275079262</v>
+        <v>17.69718795192339</v>
       </c>
       <c r="C7">
-        <v>5.479282262175939</v>
+        <v>12.38033986191761</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.7326059288216</v>
+        <v>7.602062824758117</v>
       </c>
       <c r="F7">
-        <v>38.0339416143835</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.170796249590705</v>
+        <v>30.5029918083917</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.54050920143416</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.096696008713185</v>
       </c>
       <c r="J7">
-        <v>7.081692246406386</v>
+        <v>10.67062994172586</v>
       </c>
       <c r="K7">
-        <v>13.25751329603469</v>
+        <v>16.74295571079528</v>
       </c>
       <c r="L7">
-        <v>6.368780855379122</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.79568123465312</v>
+        <v>6.459190301834822</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.54708629609373</v>
+      </c>
+      <c r="P7">
+        <v>13.00772088434904</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.97017383752872</v>
+        <v>19.3684958647514</v>
       </c>
       <c r="C8">
-        <v>6.024636869726426</v>
+        <v>13.41417545824812</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.844884286108028</v>
+        <v>7.791904954428966</v>
       </c>
       <c r="F8">
-        <v>39.28888651360924</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.159288390081806</v>
+        <v>31.93321853128825</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.260029710729778</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.85654960718883</v>
       </c>
       <c r="J8">
-        <v>6.997169233177678</v>
+        <v>10.80782714514276</v>
       </c>
       <c r="K8">
-        <v>14.10210943574686</v>
+        <v>16.84219619470558</v>
       </c>
       <c r="L8">
-        <v>6.568480721501967</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.63880866005386</v>
+        <v>6.689913910870296</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.3014748527517</v>
+      </c>
+      <c r="P8">
+        <v>12.83334211834807</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.14756054612328</v>
+        <v>22.31975955223167</v>
       </c>
       <c r="C9">
-        <v>6.998843367300029</v>
+        <v>15.23719452425469</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.079997224632719</v>
+        <v>8.147821473624322</v>
       </c>
       <c r="F9">
-        <v>41.86373153474393</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.137771393506309</v>
+        <v>34.77932446599098</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.742767400465557</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.549227411187728</v>
       </c>
       <c r="J9">
-        <v>6.837022536598577</v>
+        <v>11.12269544354752</v>
       </c>
       <c r="K9">
-        <v>15.70861789801191</v>
+        <v>17.11484427679186</v>
       </c>
       <c r="L9">
-        <v>6.97270363290717</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.37218406536586</v>
+        <v>7.119300539340599</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.67165211798368</v>
+      </c>
+      <c r="P9">
+        <v>12.50318561796784</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68193720073122</v>
+        <v>24.23892501963326</v>
       </c>
       <c r="C10">
-        <v>7.659857537998681</v>
+        <v>16.49887203075021</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.260812053971378</v>
+        <v>8.387836439920347</v>
       </c>
       <c r="F10">
-        <v>43.81803418509534</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.122481912592691</v>
+        <v>36.45356712991874</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.725907717316285</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.846492649938413</v>
       </c>
       <c r="J10">
-        <v>6.721952677318418</v>
+        <v>11.29736889871573</v>
       </c>
       <c r="K10">
-        <v>16.85106945925621</v>
+        <v>17.20316134278124</v>
       </c>
       <c r="L10">
-        <v>7.275229938591527</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.20401965965988</v>
+        <v>7.321171022355005</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.49017256774277</v>
+      </c>
+      <c r="P10">
+        <v>12.27633227905891</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.36467057248007</v>
+        <v>24.45583169549546</v>
       </c>
       <c r="C11">
-        <v>7.94953680735636</v>
+        <v>17.28557661655056</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.344621063364602</v>
+        <v>8.571177603246912</v>
       </c>
       <c r="F11">
-        <v>44.7197347145102</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.11560917220295</v>
+        <v>34.3944590304171</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.703775727439583</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.927062845948901</v>
       </c>
       <c r="J11">
-        <v>6.669966187456556</v>
+        <v>10.81245462216252</v>
       </c>
       <c r="K11">
-        <v>17.36168368549651</v>
+        <v>16.19278433241868</v>
       </c>
       <c r="L11">
-        <v>7.413681093375326</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.13424261757896</v>
+        <v>6.597522535309719</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.93081132435581</v>
+      </c>
+      <c r="P11">
+        <v>12.28195831919875</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.62097308922289</v>
+        <v>24.27377485544784</v>
       </c>
       <c r="C12">
-        <v>8.057726097571575</v>
+        <v>17.67637796088543</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.376565792345397</v>
+        <v>8.895690826504907</v>
       </c>
       <c r="F12">
-        <v>45.06297104944657</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.113015753228392</v>
+        <v>32.37251393629941</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.029504045387524</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.933589689650281</v>
       </c>
       <c r="J12">
-        <v>6.65031373994212</v>
+        <v>10.38190606102517</v>
       </c>
       <c r="K12">
-        <v>17.55370033351266</v>
+        <v>15.37287778808565</v>
       </c>
       <c r="L12">
-        <v>7.466202745798727</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.10885461465742</v>
+        <v>6.017717675594294</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.28863249771638</v>
+      </c>
+      <c r="P12">
+        <v>12.37553256575475</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.56587329354693</v>
+        <v>23.74057794824715</v>
       </c>
       <c r="C13">
-        <v>8.03449122989578</v>
+        <v>17.81604708283828</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.3696768964401</v>
+        <v>9.321023284039164</v>
       </c>
       <c r="F13">
-        <v>44.98896993101616</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.113573932407381</v>
+        <v>30.10417099396202</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.486067025132215</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.887353861286943</v>
       </c>
       <c r="J13">
-        <v>6.654545050208238</v>
+        <v>9.943785622091649</v>
       </c>
       <c r="K13">
-        <v>17.51240600078535</v>
+        <v>14.61210093570463</v>
       </c>
       <c r="L13">
-        <v>7.454887481200362</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.11427516072071</v>
+        <v>5.533857965495586</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.51898825622053</v>
+      </c>
+      <c r="P13">
+        <v>12.53543921179935</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.38580158221854</v>
+        <v>23.19524594879561</v>
       </c>
       <c r="C14">
-        <v>7.958467305435915</v>
+        <v>17.80641150145788</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.347245087657635</v>
+        <v>9.677513750423435</v>
       </c>
       <c r="F14">
-        <v>44.74793735301647</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.115395643533214</v>
+        <v>28.36564862693277</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.512385968722578</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.832495955912946</v>
       </c>
       <c r="J14">
-        <v>6.668348801816743</v>
+        <v>9.631277017425957</v>
       </c>
       <c r="K14">
-        <v>17.37750798733856</v>
+        <v>14.10981377676973</v>
       </c>
       <c r="L14">
-        <v>7.418000343864933</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.13213276521821</v>
+        <v>5.268263906485124</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.91264005020951</v>
+      </c>
+      <c r="P14">
+        <v>12.6798449312601</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.27521109037492</v>
+        <v>22.97780875276097</v>
       </c>
       <c r="C15">
-        <v>7.911706818666755</v>
+        <v>17.75515500169146</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.333531624938543</v>
+        <v>9.758217981140392</v>
       </c>
       <c r="F15">
-        <v>44.60052946619501</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>2.116512598608858</v>
+        <v>27.8650423581907</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.75065999041745</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.808714206518258</v>
       </c>
       <c r="J15">
-        <v>6.676807827644235</v>
+        <v>9.549963487101619</v>
       </c>
       <c r="K15">
-        <v>17.29470383161753</v>
+        <v>13.99220809511015</v>
       </c>
       <c r="L15">
-        <v>7.395417361053718</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.14320803251595</v>
+        <v>5.214248378573314</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.73494154218132</v>
+      </c>
+      <c r="P15">
+        <v>12.72464088419196</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.63700757609771</v>
+        <v>22.24601486660835</v>
       </c>
       <c r="C16">
-        <v>7.640711101621476</v>
+        <v>17.22935746352677</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.255364861721151</v>
+        <v>9.568461948172601</v>
       </c>
       <c r="F16">
-        <v>43.75935662659393</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>2.122932495918012</v>
+        <v>27.44398219498923</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.548412488855628</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.693252506937898</v>
       </c>
       <c r="J16">
-        <v>6.725355847613712</v>
+        <v>9.549823106555563</v>
       </c>
       <c r="K16">
-        <v>16.81751298473325</v>
+        <v>14.09688223099903</v>
       </c>
       <c r="L16">
-        <v>7.26619617654643</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.20872067796953</v>
+        <v>5.21398500510774</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.50086156890741</v>
+      </c>
+      <c r="P16">
+        <v>12.77082217574217</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.24154050683978</v>
+        <v>21.97728546202503</v>
       </c>
       <c r="C17">
-        <v>7.471694920366237</v>
+        <v>16.82296286764928</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.207798796704404</v>
+        <v>9.213357676216903</v>
       </c>
       <c r="F17">
-        <v>43.24652989072519</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.126890174610736</v>
+        <v>28.07685290946191</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.817269424353666</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.633922023153198</v>
       </c>
       <c r="J17">
-        <v>6.755218229007666</v>
+        <v>9.716366213557501</v>
       </c>
       <c r="K17">
-        <v>16.52240841723179</v>
+        <v>14.43728743539492</v>
       </c>
       <c r="L17">
-        <v>7.187115519414489</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.25067832664629</v>
+        <v>5.341552387197793</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.65409408483858</v>
+      </c>
+      <c r="P17">
+        <v>12.73069841171438</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0126414451071</v>
+        <v>22.10514364301062</v>
       </c>
       <c r="C18">
-        <v>7.373438883262053</v>
+        <v>16.46881813297857</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.180587291271431</v>
+        <v>8.755866776490674</v>
       </c>
       <c r="F18">
-        <v>42.95275907340645</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.129174472676688</v>
+        <v>29.73659806919867</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.569971151924221</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.614598896389537</v>
       </c>
       <c r="J18">
-        <v>6.772429270828491</v>
+        <v>10.05580217495713</v>
       </c>
       <c r="K18">
-        <v>16.35181624368564</v>
+        <v>15.05352772707631</v>
       </c>
       <c r="L18">
-        <v>7.141709831191627</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.27543937643455</v>
+        <v>5.666019638324198</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.16475866584452</v>
+      </c>
+      <c r="P18">
+        <v>12.62616215369534</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.93489523556471</v>
+        <v>22.50577044237283</v>
       </c>
       <c r="C19">
-        <v>7.339989788352569</v>
+        <v>16.21418189032391</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.171399736469542</v>
+        <v>8.392207720185574</v>
       </c>
       <c r="F19">
-        <v>42.85350021638635</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.129949340187141</v>
+        <v>31.95681657110112</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.08885698715615</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.641593940790181</v>
       </c>
       <c r="J19">
-        <v>6.778263165689434</v>
+        <v>10.489402527197</v>
       </c>
       <c r="K19">
-        <v>16.2939112440159</v>
+        <v>15.83048968921001</v>
       </c>
       <c r="L19">
-        <v>7.126350771065831</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.28392896962098</v>
+        <v>6.212548451597111</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.90676946063263</v>
+      </c>
+      <c r="P19">
+        <v>12.5110408318498</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.28378777434011</v>
+        <v>23.69093254924321</v>
       </c>
       <c r="C20">
-        <v>7.489794323805053</v>
+        <v>16.21515988014277</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.212847166017881</v>
+        <v>8.320402439821651</v>
       </c>
       <c r="F20">
-        <v>43.30099806926822</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.126468069470675</v>
+        <v>35.80020572484072</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.631336557758228</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.779077349930325</v>
       </c>
       <c r="J20">
-        <v>6.752035831399235</v>
+        <v>11.20695097962479</v>
       </c>
       <c r="K20">
-        <v>16.5539117275965</v>
+        <v>17.09142861513677</v>
       </c>
       <c r="L20">
-        <v>7.195525778403863</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.24614638559482</v>
+        <v>7.268068170019741</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.25673557842996</v>
+      </c>
+      <c r="P20">
+        <v>12.33966035329441</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.43875374261708</v>
+        <v>25.20718003622402</v>
       </c>
       <c r="C21">
-        <v>7.980837575998486</v>
+        <v>17.0993238398413</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.35382832111115</v>
+        <v>8.519771784894894</v>
       </c>
       <c r="F21">
-        <v>44.81868622922046</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.114860337926834</v>
+        <v>37.60007461140986</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.903156708496667</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.011427529599206</v>
       </c>
       <c r="J21">
-        <v>6.664293541659527</v>
+        <v>11.45281138556991</v>
       </c>
       <c r="K21">
-        <v>17.41716733772403</v>
+        <v>17.3683004801653</v>
       </c>
       <c r="L21">
-        <v>7.428832642212667</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.1268588755047</v>
+        <v>7.5725157727162</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.02695223579236</v>
+      </c>
+      <c r="P21">
+        <v>12.15588986557139</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.18058105077933</v>
+        <v>26.14059704345136</v>
       </c>
       <c r="C22">
-        <v>8.293027824792558</v>
+        <v>17.65611786912752</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.44717473217315</v>
+        <v>8.644808689130089</v>
       </c>
       <c r="F22">
-        <v>45.82098073448758</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.107325806857098</v>
+        <v>38.67654271767103</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.07419192493514</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.154249573444458</v>
       </c>
       <c r="J22">
-        <v>6.607135840432697</v>
+        <v>11.59994985889092</v>
       </c>
       <c r="K22">
-        <v>17.97353988438722</v>
+        <v>17.52624173050107</v>
       </c>
       <c r="L22">
-        <v>7.581847319761213</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.05496867058233</v>
+        <v>7.715570681228019</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.4675130564694</v>
+      </c>
+      <c r="P22">
+        <v>12.03888317795506</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.78584663866989</v>
+        <v>25.66658583754307</v>
       </c>
       <c r="C23">
-        <v>8.127176937442872</v>
+        <v>17.3468943702723</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.397248171686868</v>
+        <v>8.579743896033007</v>
       </c>
       <c r="F23">
-        <v>45.28508864865911</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.111343365066742</v>
+        <v>38.17670406167951</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.984540749781192</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.074613884951076</v>
       </c>
       <c r="J23">
-        <v>6.637631236199762</v>
+        <v>11.53630271641966</v>
       </c>
       <c r="K23">
-        <v>17.67731155011706</v>
+        <v>17.47215784546118</v>
       </c>
       <c r="L23">
-        <v>7.500138739647923</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.09275745327717</v>
+        <v>7.638070900335713</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.24052341047959</v>
+      </c>
+      <c r="P23">
+        <v>12.09947428209265</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.26469257730387</v>
+        <v>23.75283773287696</v>
       </c>
       <c r="C24">
-        <v>7.481614973182054</v>
+        <v>16.15754303884192</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.210564376984101</v>
+        <v>8.328352240909522</v>
       </c>
       <c r="F24">
-        <v>43.27636970007248</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.126658875044198</v>
+        <v>36.14037109715181</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.636694039000346</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.77408038491829</v>
       </c>
       <c r="J24">
-        <v>6.753474458829925</v>
+        <v>11.27702226600492</v>
       </c>
       <c r="K24">
-        <v>16.53967198290963</v>
+        <v>17.22870004325524</v>
       </c>
       <c r="L24">
-        <v>7.191723314996186</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.24819329075658</v>
+        <v>7.340777307156165</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.33919687566865</v>
+      </c>
+      <c r="P24">
+        <v>12.33431072885223</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.56947366907005</v>
+        <v>21.51722564731311</v>
       </c>
       <c r="C25">
-        <v>6.745170872692301</v>
+        <v>14.78737857788766</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.014901863675841</v>
+        <v>8.050791011567862</v>
       </c>
       <c r="F25">
-        <v>41.1557583618746</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.143491775502108</v>
+        <v>33.89636138496327</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.881386739125747</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.543559733752359</v>
       </c>
       <c r="J25">
-        <v>6.879828087930171</v>
+        <v>11.01097608604669</v>
       </c>
       <c r="K25">
-        <v>15.2802462341915</v>
+        <v>16.98936061047881</v>
       </c>
       <c r="L25">
-        <v>6.86223376606334</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.43966143458147</v>
+        <v>7.007818194187712</v>
       </c>
       <c r="O25">
+        <v>13.30319434901915</v>
+      </c>
+      <c r="P25">
+        <v>12.59285492069596</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.82627228660855</v>
+        <v>19.2339593284944</v>
       </c>
       <c r="C2">
-        <v>13.66188516925587</v>
+        <v>13.8739513612537</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.844185788382503</v>
+        <v>7.792248197430609</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>32.41780871589166</v>
+        <v>29.79485822666173</v>
       </c>
       <c r="H2">
-        <v>2.184559612993059</v>
+        <v>2.114662605637944</v>
       </c>
       <c r="I2">
-        <v>2.78018630981378</v>
+        <v>2.69067321092909</v>
       </c>
       <c r="J2">
-        <v>10.86575747706335</v>
+        <v>10.82843745498439</v>
       </c>
       <c r="K2">
-        <v>16.90931349975166</v>
+        <v>15.95007021842427</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.35949225512513</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.30354448397567</v>
       </c>
       <c r="N2">
-        <v>6.749286405875066</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.50746841377089</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.786151669508</v>
+        <v>6.872116772460654</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.30823126693074</v>
+      </c>
+      <c r="R2">
+        <v>12.71500547976951</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.5540284202461</v>
+        <v>18.02565114958356</v>
       </c>
       <c r="C3">
-        <v>12.8737950915499</v>
+        <v>13.03059586311574</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.697105053235441</v>
+        <v>7.666603626210942</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>31.28708458957313</v>
+        <v>28.89983431434342</v>
       </c>
       <c r="H3">
-        <v>2.400913778955558</v>
+        <v>2.309876602728993</v>
       </c>
       <c r="I3">
-        <v>2.966677412384515</v>
+        <v>2.851560470195513</v>
       </c>
       <c r="J3">
-        <v>10.7521181117261</v>
+        <v>10.71892729713158</v>
       </c>
       <c r="K3">
-        <v>16.82132051963174</v>
+        <v>15.9389053053867</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.45398192870583</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.19913989007256</v>
       </c>
       <c r="N3">
-        <v>6.570647402601907</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.9272264053146</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.9219711806804</v>
+        <v>6.699880241975646</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.74718855672824</v>
+      </c>
+      <c r="R3">
+        <v>12.82466957828607</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72559756151128</v>
+        <v>17.23749317918005</v>
       </c>
       <c r="C4">
-        <v>12.36745958205915</v>
+        <v>12.48779890009494</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.604255354504401</v>
+        <v>7.587313831732208</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>30.58358820271396</v>
+        <v>28.34641234147101</v>
       </c>
       <c r="H4">
-        <v>2.538304261847567</v>
+        <v>2.433956843191465</v>
       </c>
       <c r="I4">
-        <v>3.085935419694266</v>
+        <v>2.954879330745813</v>
       </c>
       <c r="J4">
-        <v>10.68501661078104</v>
+        <v>10.65145855790998</v>
       </c>
       <c r="K4">
-        <v>16.77083958707557</v>
+        <v>15.93418271403658</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.51072985445169</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.15445112617952</v>
       </c>
       <c r="N4">
-        <v>6.458515564504743</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.5564016337182</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.00702952286335</v>
+        <v>6.592118662946472</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.3881839340676</v>
+      </c>
+      <c r="R4">
+        <v>12.89435588980433</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.36891073768643</v>
+        <v>16.89773343454694</v>
       </c>
       <c r="C5">
-        <v>12.16029758047971</v>
+        <v>12.26516127511681</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.565247236910666</v>
+        <v>7.554007640556804</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.27181248443066</v>
+        <v>28.0979726180042</v>
       </c>
       <c r="H5">
-        <v>2.595892080506026</v>
+        <v>2.486001177685916</v>
       </c>
       <c r="I5">
-        <v>3.138688792697415</v>
+        <v>3.001546096724562</v>
       </c>
       <c r="J5">
-        <v>10.6541421757496</v>
+        <v>10.61995388716428</v>
       </c>
       <c r="K5">
-        <v>16.74287297244038</v>
+        <v>15.92520557476679</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.52688270538717</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.13640237324911</v>
       </c>
       <c r="N5">
-        <v>6.4126260675617</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.39958973092886</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.04214636483407</v>
+        <v>6.548109518614746</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.23627712440524</v>
+      </c>
+      <c r="R5">
+        <v>12.92364203382085</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.30010447226121</v>
+        <v>16.83210059343658</v>
       </c>
       <c r="C6">
-        <v>12.13140870891911</v>
+        <v>12.23367643345626</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.558107327655953</v>
+        <v>7.547909354681298</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.19163230720345</v>
+        <v>28.0295869864808</v>
       </c>
       <c r="H6">
-        <v>2.606057969146446</v>
+        <v>2.495201127972122</v>
       </c>
       <c r="I6">
-        <v>3.151305931121776</v>
+        <v>3.01376804948658</v>
       </c>
       <c r="J6">
-        <v>10.64392071618714</v>
+        <v>10.60987684592321</v>
       </c>
       <c r="K6">
-        <v>16.72818644214827</v>
+        <v>15.91451287149571</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.52142862570852</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.12787875843359</v>
       </c>
       <c r="N6">
-        <v>6.40544583904688</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.37066038111305</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.04805077794534</v>
+        <v>6.541231464535607</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.20827262987286</v>
+      </c>
+      <c r="R6">
+        <v>12.92892029989577</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.69718795192339</v>
+        <v>17.19970002987788</v>
       </c>
       <c r="C7">
-        <v>12.38033986191761</v>
+        <v>12.48431232357326</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.602062824758117</v>
+        <v>7.584978963302554</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>30.5029918083917</v>
+        <v>28.33931217257813</v>
       </c>
       <c r="H7">
-        <v>2.54050920143416</v>
+        <v>2.436760237579276</v>
       </c>
       <c r="I7">
-        <v>3.096696008713185</v>
+        <v>2.968005148225684</v>
       </c>
       <c r="J7">
-        <v>10.67062994172586</v>
+        <v>10.58706032908239</v>
       </c>
       <c r="K7">
-        <v>16.74295571079528</v>
+        <v>15.89722765164965</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.47908287844036</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.13024432967047</v>
       </c>
       <c r="N7">
-        <v>6.459190301834822</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.54708629609373</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.00772088434904</v>
+        <v>6.592040577997742</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.37493884242175</v>
+      </c>
+      <c r="R7">
+        <v>12.89653761519483</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.3684958647514</v>
+        <v>18.76683036718613</v>
       </c>
       <c r="C8">
-        <v>13.41417545824812</v>
+        <v>13.55764813267676</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.791904954428966</v>
+        <v>7.74618568355968</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>31.93321853128825</v>
+        <v>29.61729679448738</v>
       </c>
       <c r="H8">
-        <v>2.260029710729778</v>
+        <v>2.185203370155203</v>
       </c>
       <c r="I8">
-        <v>2.85654960718883</v>
+        <v>2.762895797384348</v>
       </c>
       <c r="J8">
-        <v>10.80782714514276</v>
+        <v>10.6085478927112</v>
       </c>
       <c r="K8">
-        <v>16.84219619470558</v>
+        <v>15.87475490326991</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.33445509032094</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.21290366628639</v>
       </c>
       <c r="N8">
-        <v>6.689913910870296</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.3014748527517</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.83334211834807</v>
+        <v>6.812508720906661</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.09574172074923</v>
+      </c>
+      <c r="R8">
+        <v>12.7571684999233</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.31975955223167</v>
+        <v>21.60550318668085</v>
       </c>
       <c r="C9">
-        <v>15.23719452425469</v>
+        <v>15.49728095534777</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.147821473624322</v>
+        <v>8.050088094848338</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>34.77932446599098</v>
+        <v>31.94947635540727</v>
       </c>
       <c r="H9">
-        <v>1.742767400465557</v>
+        <v>1.719583879742399</v>
       </c>
       <c r="I9">
-        <v>2.549227411187728</v>
+        <v>2.588472357692507</v>
       </c>
       <c r="J9">
-        <v>11.12269544354752</v>
+        <v>10.8552678587027</v>
       </c>
       <c r="K9">
-        <v>17.11484427679186</v>
+        <v>15.93583402554148</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.11291826569325</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.58661354600119</v>
       </c>
       <c r="N9">
-        <v>7.119300539340599</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.67165211798368</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.50318561796784</v>
+        <v>7.227871180664344</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.41599650693528</v>
+      </c>
+      <c r="R9">
+        <v>12.49746947863629</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.23892501963326</v>
+        <v>23.36502924917167</v>
       </c>
       <c r="C10">
-        <v>16.49887203075021</v>
+        <v>16.75261810098021</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.387836439920347</v>
+        <v>8.255245353301079</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>36.45356712991874</v>
+        <v>33.66966256789774</v>
       </c>
       <c r="H10">
-        <v>1.725907717316285</v>
+        <v>1.710305981548823</v>
       </c>
       <c r="I10">
-        <v>2.846492649938413</v>
+        <v>2.842429605453145</v>
       </c>
       <c r="J10">
-        <v>11.29736889871573</v>
+        <v>10.70518875230326</v>
       </c>
       <c r="K10">
-        <v>17.20316134278124</v>
+        <v>15.82181437813624</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.82244370600234</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.80534918264937</v>
       </c>
       <c r="N10">
-        <v>7.321171022355005</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.49017256774277</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.27633227905891</v>
+        <v>7.416441348162212</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.18213682003017</v>
+      </c>
+      <c r="R10">
+        <v>12.34091122653903</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.45583169549546</v>
+        <v>23.52817389936089</v>
       </c>
       <c r="C11">
-        <v>17.28557661655056</v>
+        <v>17.35607530485749</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.571177603246912</v>
+        <v>8.43659077218074</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>34.3944590304171</v>
+        <v>32.56633570389221</v>
       </c>
       <c r="H11">
-        <v>2.703775727439583</v>
+        <v>2.684866793439364</v>
       </c>
       <c r="I11">
-        <v>2.927062845948901</v>
+        <v>2.909428384267668</v>
       </c>
       <c r="J11">
-        <v>10.81245462216252</v>
+        <v>9.754603775078774</v>
       </c>
       <c r="K11">
-        <v>16.19278433241868</v>
+        <v>14.81854657929411</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.04028683735478</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.11298931841194</v>
       </c>
       <c r="N11">
-        <v>6.597522535309719</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.93081132435581</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.28195831919875</v>
+        <v>6.668969984254419</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.59828636387839</v>
+      </c>
+      <c r="R11">
+        <v>12.44734028253157</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.27377485544784</v>
+        <v>23.36085078733016</v>
       </c>
       <c r="C12">
-        <v>17.67637796088543</v>
+        <v>17.63571327123197</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.895690826504907</v>
+        <v>8.75526017536901</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>32.37251393629941</v>
+        <v>31.12410483071121</v>
       </c>
       <c r="H12">
-        <v>4.029504045387524</v>
+        <v>4.036252241623081</v>
       </c>
       <c r="I12">
-        <v>2.933589689650281</v>
+        <v>2.913052384260185</v>
       </c>
       <c r="J12">
-        <v>10.38190606102517</v>
+        <v>9.196111700604192</v>
       </c>
       <c r="K12">
-        <v>15.37287778808565</v>
+        <v>14.09383886361421</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.52865241124328</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.541594770577685</v>
       </c>
       <c r="N12">
-        <v>6.017717675594294</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.28863249771638</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.37553256575475</v>
+        <v>6.072843061329731</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.95905936191123</v>
+      </c>
+      <c r="R12">
+        <v>12.59977883584036</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.74057794824715</v>
+        <v>22.91819464148869</v>
       </c>
       <c r="C13">
-        <v>17.81604708283828</v>
+        <v>17.7428948783027</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.321023284039164</v>
+        <v>9.189436475189444</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>30.10417099396202</v>
+        <v>29.03778344891483</v>
       </c>
       <c r="H13">
-        <v>5.486067025132215</v>
+        <v>5.493228126326555</v>
       </c>
       <c r="I13">
-        <v>2.887353861286943</v>
+        <v>2.875110346067935</v>
       </c>
       <c r="J13">
-        <v>9.943785622091649</v>
+        <v>8.945611113786958</v>
       </c>
       <c r="K13">
-        <v>14.61210093570463</v>
+        <v>13.52244098119156</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.16274435231607</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.024884485782893</v>
       </c>
       <c r="N13">
-        <v>5.533857965495586</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.51898825622053</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.53543921179935</v>
+        <v>5.579165168676127</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.22251806576902</v>
+      </c>
+      <c r="R13">
+        <v>12.7762647072797</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19524594879561</v>
+        <v>22.47128669412463</v>
       </c>
       <c r="C14">
-        <v>17.80641150145788</v>
+        <v>17.74479560110267</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.677513750423435</v>
+        <v>9.563542396742616</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>28.36564862693277</v>
+        <v>27.25573187120556</v>
       </c>
       <c r="H14">
-        <v>6.512385968722578</v>
+        <v>6.516206222503309</v>
       </c>
       <c r="I14">
-        <v>2.832495955912946</v>
+        <v>2.831378890922525</v>
       </c>
       <c r="J14">
-        <v>9.631277017425957</v>
+        <v>8.885776947301061</v>
       </c>
       <c r="K14">
-        <v>14.10981377676973</v>
+        <v>13.18713523724657</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.96228371782942</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.689288936251016</v>
       </c>
       <c r="N14">
-        <v>5.268263906485124</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.91264005020951</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.6798449312601</v>
+        <v>5.309775845637104</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.65261942128234</v>
+      </c>
+      <c r="R14">
+        <v>12.90937967054022</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.97780875276097</v>
+        <v>22.29324910498608</v>
       </c>
       <c r="C15">
-        <v>17.75515500169146</v>
+        <v>17.71121950828781</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.758217981140392</v>
+        <v>9.654248973682519</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>27.8650423581907</v>
+        <v>26.67309690296776</v>
       </c>
       <c r="H15">
-        <v>6.75065999041745</v>
+        <v>6.753284112935478</v>
       </c>
       <c r="I15">
-        <v>2.808714206518258</v>
+        <v>2.813272257689932</v>
       </c>
       <c r="J15">
-        <v>9.549963487101619</v>
+        <v>8.917155370504428</v>
       </c>
       <c r="K15">
-        <v>13.99220809511015</v>
+        <v>13.12494195661839</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.93036110800028</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.613152101588998</v>
       </c>
       <c r="N15">
-        <v>5.214248378573314</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.73494154218132</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.72464088419196</v>
+        <v>5.256311335229291</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.48950843867019</v>
+      </c>
+      <c r="R15">
+        <v>12.94298315319469</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.24601486660835</v>
+        <v>21.68878037726108</v>
       </c>
       <c r="C16">
-        <v>17.22935746352677</v>
+        <v>17.30882764809318</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.568461948172601</v>
+        <v>9.510901895152564</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>27.44398219498923</v>
+        <v>25.66656078197764</v>
       </c>
       <c r="H16">
-        <v>6.548412488855628</v>
+        <v>6.545846053123726</v>
       </c>
       <c r="I16">
-        <v>2.693252506937898</v>
+        <v>2.720797779736795</v>
       </c>
       <c r="J16">
-        <v>9.549823106555563</v>
+        <v>9.350874515696448</v>
       </c>
       <c r="K16">
-        <v>14.09688223099903</v>
+        <v>13.34798824301967</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.11994088371525</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.703786901563534</v>
       </c>
       <c r="N16">
-        <v>5.21398500510774</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.50086156890741</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.77082217574217</v>
+        <v>5.269566395150323</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.30219245708475</v>
+      </c>
+      <c r="R16">
+        <v>12.92212034947309</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.97728546202503</v>
+        <v>21.45161366571645</v>
       </c>
       <c r="C17">
-        <v>16.82296286764928</v>
+        <v>16.97124182007346</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.213357676216903</v>
+        <v>9.172217906990371</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>28.07685290946191</v>
+        <v>25.96545720016299</v>
       </c>
       <c r="H17">
-        <v>5.817269424353666</v>
+        <v>5.811253064560334</v>
       </c>
       <c r="I17">
-        <v>2.633922023153198</v>
+        <v>2.672434021703999</v>
       </c>
       <c r="J17">
-        <v>9.716366213557501</v>
+        <v>9.67855951502548</v>
       </c>
       <c r="K17">
-        <v>14.43728743539492</v>
+        <v>13.68655997667537</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.37774210288051</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.934088735628343</v>
       </c>
       <c r="N17">
-        <v>5.341552387197793</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.65409408483858</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.73069841171438</v>
+        <v>5.408934445816981</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.46677446350802</v>
+      </c>
+      <c r="R17">
+        <v>12.84666460970165</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.10514364301062</v>
+        <v>21.54740506063519</v>
       </c>
       <c r="C18">
-        <v>16.46881813297857</v>
+        <v>16.67324444818061</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.755866776490674</v>
+        <v>8.710497178137654</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>29.73659806919867</v>
+        <v>27.32945003619345</v>
       </c>
       <c r="H18">
-        <v>4.569971151924221</v>
+        <v>4.56145804254186</v>
       </c>
       <c r="I18">
-        <v>2.614598896389537</v>
+        <v>2.65442616993326</v>
       </c>
       <c r="J18">
-        <v>10.05580217495713</v>
+        <v>10.04246198287179</v>
       </c>
       <c r="K18">
-        <v>15.05352772707631</v>
+        <v>14.21549626328317</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.76589210021992</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.343304131972008</v>
       </c>
       <c r="N18">
-        <v>5.666019638324198</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.16475866584452</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.62616215369534</v>
+        <v>5.745482852298994</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.96684751332895</v>
+      </c>
+      <c r="R18">
+        <v>12.71791910758192</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.50577044237283</v>
+        <v>21.87688730271583</v>
       </c>
       <c r="C19">
-        <v>16.21418189032391</v>
+        <v>16.47058704132037</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.392207720185574</v>
+        <v>8.325677924776203</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>31.95681657110112</v>
+        <v>29.2551049748737</v>
       </c>
       <c r="H19">
-        <v>3.08885698715615</v>
+        <v>3.078950008769351</v>
       </c>
       <c r="I19">
-        <v>2.641593940790181</v>
+        <v>2.677664304777096</v>
       </c>
       <c r="J19">
-        <v>10.489402527197</v>
+        <v>10.42552594652194</v>
       </c>
       <c r="K19">
-        <v>15.83048968921001</v>
+        <v>14.85183713649625</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.22611045527904</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.856559630629775</v>
       </c>
       <c r="N19">
-        <v>6.212548451597111</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.90676946063263</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.5110408318498</v>
+        <v>6.303304039050564</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.68508702853174</v>
+      </c>
+      <c r="R19">
+        <v>12.58079251042352</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.69093254924321</v>
+        <v>22.89008739890793</v>
       </c>
       <c r="C20">
-        <v>16.21515988014277</v>
+        <v>16.51607575141941</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.320402439821651</v>
+        <v>8.19941390676107</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>35.80020572484072</v>
+        <v>32.79626195880007</v>
       </c>
       <c r="H20">
-        <v>1.631336557758228</v>
+        <v>1.62824253925082</v>
       </c>
       <c r="I20">
-        <v>2.779077349930325</v>
+        <v>2.792651702994263</v>
       </c>
       <c r="J20">
-        <v>11.20695097962479</v>
+        <v>10.8732673547872</v>
       </c>
       <c r="K20">
-        <v>17.09142861513677</v>
+        <v>15.81288454180227</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.87100789530773</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.71249596364343</v>
       </c>
       <c r="N20">
-        <v>7.268068170019741</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.25673557842996</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.33966035329441</v>
+        <v>7.36879289016784</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.9759991689394</v>
+      </c>
+      <c r="R20">
+        <v>12.38463188152545</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.20718003622402</v>
+        <v>24.12371005934827</v>
       </c>
       <c r="C21">
-        <v>17.0993238398413</v>
+        <v>17.17134294945573</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.519771784894894</v>
+        <v>8.361753714429771</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>37.60007461140986</v>
+        <v>35.70381323431556</v>
       </c>
       <c r="H21">
-        <v>1.903156708496667</v>
+        <v>1.858259655962637</v>
       </c>
       <c r="I21">
-        <v>3.011427529599206</v>
+        <v>2.978449633640298</v>
       </c>
       <c r="J21">
-        <v>11.45281138556991</v>
+        <v>9.999558175989677</v>
       </c>
       <c r="K21">
-        <v>17.3683004801653</v>
+        <v>15.68720218706351</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.62384428654497</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.86386062829027</v>
       </c>
       <c r="N21">
-        <v>7.5725157727162</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.02695223579236</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.15588986557139</v>
+        <v>7.654544375199661</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.63545786475558</v>
+      </c>
+      <c r="R21">
+        <v>12.27605036405999</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.14059704345136</v>
+        <v>24.87432978342478</v>
       </c>
       <c r="C22">
-        <v>17.65611786912752</v>
+        <v>17.56720888518991</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.644808689130089</v>
+        <v>8.467277628709196</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>38.67654271767103</v>
+        <v>37.59065093099215</v>
       </c>
       <c r="H22">
-        <v>2.07419192493514</v>
+        <v>2.002557280043272</v>
       </c>
       <c r="I22">
-        <v>3.154249573444458</v>
+        <v>3.09005314693236</v>
       </c>
       <c r="J22">
-        <v>11.59994985889092</v>
+        <v>9.3968799621</v>
       </c>
       <c r="K22">
-        <v>17.52624173050107</v>
+        <v>15.57151126967844</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.44109846746786</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.94265210435114</v>
       </c>
       <c r="N22">
-        <v>7.715570681228019</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.4675130564694</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.03888317795506</v>
+        <v>7.784678788571838</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.00236884642741</v>
+      </c>
+      <c r="R22">
+        <v>12.21624386865025</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.66658583754307</v>
+        <v>24.51646343733073</v>
       </c>
       <c r="C23">
-        <v>17.3468943702723</v>
+        <v>17.3749101107426</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.579743896033007</v>
+        <v>8.412359633578122</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>38.17670406167951</v>
+        <v>36.49936164996468</v>
       </c>
       <c r="H23">
-        <v>1.984540749781192</v>
+        <v>1.928382467609304</v>
       </c>
       <c r="I23">
-        <v>3.074613884951076</v>
+        <v>3.026834261662463</v>
       </c>
       <c r="J23">
-        <v>11.53630271641966</v>
+        <v>9.836969464168511</v>
       </c>
       <c r="K23">
-        <v>17.47215784546118</v>
+        <v>15.68912838055143</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.57619694152426</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.94706805824385</v>
       </c>
       <c r="N23">
-        <v>7.638070900335713</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.24052341047959</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.09947428209265</v>
+        <v>7.71552768280251</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.82323130243456</v>
+      </c>
+      <c r="R23">
+        <v>12.23962287497223</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.75283773287696</v>
+        <v>22.94495037472893</v>
       </c>
       <c r="C24">
-        <v>16.15754303884192</v>
+        <v>16.46502304021762</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.328352240909522</v>
+        <v>8.204146977174437</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>36.14037109715181</v>
+        <v>33.09357276877667</v>
       </c>
       <c r="H24">
-        <v>1.636694039000346</v>
+        <v>1.633142882437352</v>
       </c>
       <c r="I24">
-        <v>2.77408038491829</v>
+        <v>2.784850207582812</v>
       </c>
       <c r="J24">
-        <v>11.27702226600492</v>
+        <v>10.94237581115704</v>
       </c>
       <c r="K24">
-        <v>17.22870004325524</v>
+        <v>15.93194984727644</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.95871724801908</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.80576357439775</v>
       </c>
       <c r="N24">
-        <v>7.340777307156165</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.33919687566865</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.33431072885223</v>
+        <v>7.442750568120686</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.05614348206736</v>
+      </c>
+      <c r="R24">
+        <v>12.37188213315842</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.51722564731311</v>
+        <v>20.8496302982777</v>
       </c>
       <c r="C25">
-        <v>14.78737857788766</v>
+        <v>15.03772335287425</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.050791011567862</v>
+        <v>7.967824437712812</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>33.89636138496327</v>
+        <v>31.11440381001759</v>
       </c>
       <c r="H25">
-        <v>1.881386739125747</v>
+        <v>1.843286465235618</v>
       </c>
       <c r="I25">
-        <v>2.543559733752359</v>
+        <v>2.499173165258139</v>
       </c>
       <c r="J25">
-        <v>11.01097608604669</v>
+        <v>10.83576672866493</v>
       </c>
       <c r="K25">
-        <v>16.98936061047881</v>
+        <v>15.88975010787789</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.15335358009174</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.44841975505002</v>
       </c>
       <c r="N25">
-        <v>7.007818194187712</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.30319434901915</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.59285492069596</v>
+        <v>7.120723552767784</v>
       </c>
       <c r="Q25">
+        <v>13.06683154531764</v>
+      </c>
+      <c r="R25">
+        <v>12.56798845096308</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
